--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 20. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 20. komite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E444"/>
+  <dimension ref="A1:H444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>Tescilli Adresi</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Şirket Türü</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Numarası</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Adı</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -482,6 +497,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6130 SK. NO: 16/3 İÇ KAPI NO: 3 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -505,6 +535,21 @@
           <t xml:space="preserve"> İSTASYONALTI MAHALLESİ YENİ HAVAALANI YOLU NO:40 TESCO KİPA AVM 1.KAT MAĞAZA NO:55 ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -528,6 +573,21 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK NO:10  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -551,6 +611,21 @@
           <t xml:space="preserve"> BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -574,6 +649,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAHALLESİ MITHAT PAŞA CADDESI NO:1468 TESCO KİPA BALÇOVA ALIŞVERİŞ MERKEZİNO:Z37  / </t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -597,6 +687,21 @@
           <t>BAHARİYE                  MAHALLESİ 1868 SK. NO: 14 F KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -620,6 +725,21 @@
           <t>GONCALAR                  MAHALLESİ GİRNE BULVARI NO:149-1A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -643,6 +763,21 @@
           <t>GÖZTEPE MAHALLESİ MİTHATPAŞA CAD. NO: 837 A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -666,6 +801,21 @@
           <t>ARAPHASAN MAHALLESİ İNÖNÜ CAD. NO:317/A  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -689,6 +839,21 @@
           <t>YEŞİLOVA                  MAHALLESİ 4174 SOKAK NO:84/10  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -712,6 +877,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 32 İÇ KAPI NO: 105 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -735,6 +915,21 @@
           <t>ALAÇATI MAHALLESİ 11001 SK NO:7/A  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -758,6 +953,21 @@
           <t>BOSTANLI                  MAHALLESİ CEMAL GÜRSEL CADDESİ NO:508/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -781,6 +991,21 @@
           <t>SAKARYA MAHALLESİ 2001 SOKAK NO:119/1I  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -804,6 +1029,21 @@
           <t>AHMET EFENDİ MAHALLESİ HAVAALANI ŞOSESİ CAD. NO:2/A  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -827,6 +1067,21 @@
           <t>ÇINARLI                   MAHALLESİ OZAN ABAY CADDESİ NO:8/B26  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -850,6 +1105,21 @@
           <t>GÜNEŞLİ MAHALLESİ EŞREFPAŞA CADDESİ NO:408/Z11  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -873,6 +1143,21 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. NO:55  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -896,6 +1181,21 @@
           <t>AKDENİZ MAHALLESİ ATATÜRK CAD. NO:19/Z18  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -919,6 +1219,21 @@
           <t>MAVİŞEHİR                 MAHALLESİ AZİZ NESİN BULVARI NO:24/201  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -942,6 +1257,21 @@
           <t>ÇETİN EMEÇ MAHALLESİ KIVANÇ SK.  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -965,6 +1295,21 @@
           <t>İSMAİL KAPTAN MAHALLESİ ŞAİR EŞREF BULV. NO:11/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -988,6 +1333,21 @@
           <t>ATATÜRK MAHALLESİ 6302 SOKAK NO:6/A  GÜMÜLDÜR MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1011,6 +1371,21 @@
           <t>ÇAMLIKULE                 MAHALLESİ 290 SK. NO:27/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1034,6 +1409,21 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ 1834/2 SK. AHU BLOK  NO: 10B  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1057,6 +1447,21 @@
           <t xml:space="preserve"> ZÜBEYDE HANIM MAH. 7448/4 SK.  NO: 33  İÇ KAPI NO: 115 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1080,6 +1485,21 @@
           <t>BASIN SİTESİ MAHALLESİ 175/3 SOKAK NO: 17B  İÇ KAPI NO: B  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1103,6 +1523,21 @@
           <t xml:space="preserve"> ALAYBEY MAH. METİN ALTIOK SK.  NO: 25A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1126,6 +1561,21 @@
           <t xml:space="preserve"> BAHÇELİEVLER MAH. ANADOLU CAD.  NO: 323  İÇ KAPI NO: 9 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1149,6 +1599,21 @@
           <t>BADEMLER MAHALLESİ 15035/3 NO:2  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1172,6 +1637,21 @@
           <t>ATAŞEHİR MAHALLESİ YENİHAVAALANI CADDESİ NO:40/Z101  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1195,6 +1675,21 @@
           <t xml:space="preserve"> GÜRPINAR MAHALLESİ  7236   NO:8/A  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1218,6 +1713,21 @@
           <t xml:space="preserve"> IRMAK MAHALLESİ HASAN GÜVEN CAD. C BLOK APT.  NO: 69 -2C  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1241,6 +1751,21 @@
           <t>HUZUR                     MAHALLESİ FUL SK. NO:20  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1264,6 +1789,21 @@
           <t xml:space="preserve"> LATİFE HANIM MAH. 7686 SK.  NO: 12/1 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1287,6 +1827,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAHALLESİ 367/6 SK.  NO: 9 D  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1310,6 +1865,21 @@
           <t xml:space="preserve"> 4276 SOKAK NO:22/A  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1333,6 +1903,21 @@
           <t>ZAFER MAHALLESİ TURGUT ÖZAL CAD. NO: 120 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1356,6 +1941,21 @@
           <t>AOSB MAHALLESİ 10016 SK. NO:35  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1379,6 +1979,21 @@
           <t xml:space="preserve"> SASALI MERKEZ MAH. 52 SK. NO: 3A İÇ KAPI NO: A ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1398,6 +2013,21 @@
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1421,6 +2051,21 @@
           <t xml:space="preserve"> ŞAİR EŞREF BULVARI NO:72/1  ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1444,6 +2089,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5748/1 SK. NO: 5 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1467,6 +2127,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z67 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1490,6 +2165,21 @@
           <t>FAHRETTİN ALTAY MAHALLESİ MİTHATPAŞA CADDESİ  NO: 1173A  İÇ KAPI NO: B01  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1513,6 +2203,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAH. ANADOLU CAD. NO: 897B ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1536,6 +2241,21 @@
           <t>MERİÇ                     MAHALLESİ 5746/10 SOKAK NO:23/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1559,6 +2279,21 @@
           <t>BELENBAŞI MAHALLESİ BEYLİK CAD. NO:65  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1582,6 +2317,21 @@
           <t xml:space="preserve"> KORUTÜRK MAH. MELTEM SK. NO: 20A BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1605,6 +2355,21 @@
           <t xml:space="preserve"> EVKA 3 MAHALLESİ 129/4 SK.  NO: 36/11-  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1628,6 +2393,21 @@
           <t xml:space="preserve"> MAVİŞEHİR MAH. AZİZ NESİN BUL. NO: 24 İÇ KAPI NO: 211 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1651,6 +2431,21 @@
           <t xml:space="preserve"> 1379 SK. NO:59  KAT:6 DAİRE:605 ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1674,6 +2469,21 @@
           <t>ATIFBEY                   MAHALLESİ MALAZGİRT CAD. NO:5/A DEĞIŞENKENT Sit.  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1697,6 +2507,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAH. 7098/2 SK. NO: 80 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1720,6 +2545,21 @@
           <t>HALKAPINAR MAHALLESİ 1203/2 SOKAK NO:22 YENER İŞMERKEZİ BLOK  İÇ KAPI NO: 218  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1743,6 +2583,21 @@
           <t xml:space="preserve"> 1202 SOK. NO:88/B  YENİŞEHİR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1766,6 +2621,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL.  NO: 39  İÇ KAPI NO: 2511 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1789,6 +2659,21 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. OPTİMUM ALIŞVERİŞ  MERKEZİ BLOK  NO: 103  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1812,6 +2697,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3  İÇ KAPI NO: Z70  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1835,6 +2735,21 @@
           <t>OĞLANANASI ATATÜRK MAHALLESİ 4 CAD. NO: 15  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1858,6 +2773,21 @@
           <t>MERİÇ MAHALLESİ 5747 SOKAK NO:14/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1881,6 +2811,21 @@
           <t xml:space="preserve"> MERİÇ MAHALLESİ 5746 SK.  NO: 78/3  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1904,6 +2849,21 @@
           <t>HACI İSA MAHALLESİ 75.YIL CUMHURİYET CAD. NO:5  DAİRE:2 URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1923,6 +2883,21 @@
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1946,6 +2921,21 @@
           <t>ERZENE MAHALLESİ 33 SOKAK NO:7/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1969,6 +2959,21 @@
           <t xml:space="preserve"> BARIŞ MAH. 4661 SK. NO: 2 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1992,6 +2997,21 @@
           <t xml:space="preserve"> MENDERES CADDESI NO:30/B BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2015,6 +3035,21 @@
           <t xml:space="preserve"> 1362 SOKAK NO:30  KAT:4 DAİRE:402 ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2038,6 +3073,21 @@
           <t xml:space="preserve"> OSMAN AKSÜNER MAH. 5922 SK.  NO: 6  İÇ KAPI NO: 101 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2061,6 +3111,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. ALİ ÇETİNKAYA BUL. PAKKAT NO: 25C KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2084,6 +3149,21 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. NO:99  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2107,6 +3187,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. MİTHATPAŞA CAD. KİPA NO: 46 İÇ KAPI NO: Z10 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2130,6 +3225,21 @@
           <t xml:space="preserve"> BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ NO: 101 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2153,6 +3263,21 @@
           <t xml:space="preserve"> R.ŞEVKET İNCE MAH. 2148/9 SK. NO: 1 İÇ KAPI NO: 1B61 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2176,6 +3301,21 @@
           <t>DONANMACI                 MAHALLESİ KEMALPAŞA CAD. NO:15/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2199,6 +3339,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAHALLESİ 8216 SOKAK NO:15/A ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2222,6 +3377,21 @@
           <t xml:space="preserve"> YALI MAHALLESİ 6438 SK.  NO: 4/10  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2245,6 +3415,21 @@
           <t>KÜLTÜR                    MAHALLESİ 1389 SOKAK NO:8  DAİRE:2 ALSANCAK KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2268,6 +3453,21 @@
           <t>KARACAOĞLAN               MAHALLESİ 6166 SOKAK C-D BLOK  NO: 32B BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2291,6 +3491,21 @@
           <t xml:space="preserve"> ZAFERTEPE MAH. YEŞİLLİK CAD. NO: 77-79A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2314,6 +3529,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1203/11 SK. ÖMER ATLI İŞMERKEZİ NO: 3 İÇ KAPI NO: Z2 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2337,6 +3567,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. İZMİR KEMALPAŞA ASFALTI CAD. NO: 15 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2360,6 +3605,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL.  NO: 39  İÇ KAPI NO: 3107 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2383,6 +3643,21 @@
           <t xml:space="preserve"> ULAMIŞ MAH. UFUKKÖY KÜME EVLERİ  NO: 84  İÇ KAPI NO: 1 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2406,6 +3681,21 @@
           <t>HALKAPINAR MAHALLESİ 1202 SK. NO:57/F/F  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2429,6 +3719,21 @@
           <t xml:space="preserve"> YENİŞEHİR MAH. 1248 SK. NO: 1 İÇ KAPI NO: 22 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2452,6 +3757,21 @@
           <t xml:space="preserve"> MERİÇ MAHALLESİ 5748 SK.  NO: 65/2  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2475,6 +3795,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. GAZİ OSMAN PAŞA BUL. HİLTON OTELİ NO: 7 İÇ KAPI NO: Z54 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2498,6 +3833,21 @@
           <t>MERİÇ                     MAHALLESİ 5746/9 SOKAK NO: 2  İÇ KAPI NO: 1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2521,6 +3871,21 @@
           <t>İSMET KAPTAN              MAHALLESİ 1372 SOKAK TÜRKAY PLAZA BLOK  NO: 13  İÇ KAPI NO: 2  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2544,6 +3909,21 @@
           <t xml:space="preserve"> YENİ MAHALLE MAH. 8206 SK.  NO: 46A ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2567,6 +3947,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2590,6 +3985,21 @@
           <t>AOSB MAHALLESİ M. KEMAL ATATÜRK BLV. NO:8  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2613,6 +4023,21 @@
           <t>KARABAĞLAR MAHALLESİ 5764 SOKAK NO: 34 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2636,6 +4061,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2659,6 +4099,21 @@
           <t xml:space="preserve"> ZAFER MAH. 2370 SK.  NO: 20 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2682,6 +4137,21 @@
           <t xml:space="preserve"> ÜMİT MAHALLESİ 7404 SK.  NO: 4 /1  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2701,6 +4171,21 @@
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2724,6 +4209,21 @@
           <t xml:space="preserve"> YENİKENT MAH. GÜVERCİN SK. NO: 7 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2747,6 +4247,21 @@
           <t xml:space="preserve"> FATİH MAH. 1191 SK.  NO: 5/9 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2770,6 +4285,21 @@
           <t>AOSB MAHALLESİ 10016 SK. NO:58  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2793,6 +4323,21 @@
           <t xml:space="preserve"> MENDERES MAH. 152 SK. NO: 4D BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2816,6 +4361,21 @@
           <t>MERİÇ MAHALLESİ 5746/4 SK. NO: 23/1- BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2839,6 +4399,21 @@
           <t xml:space="preserve"> ÇETİN EMEÇ MAH. FEVZİ ÇAKMAK SK. İNŞAAT NO: 6A BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2858,6 +4433,21 @@
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2881,6 +4471,21 @@
           <t xml:space="preserve"> EĞİTİM MAH. MERCAN SK.  NO: 7A BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2904,6 +4509,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2809 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2927,6 +4547,21 @@
           <t xml:space="preserve"> AYDINLIKEVLER MAH. 6782 SK. NO: 2A ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2946,6 +4581,21 @@
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2969,6 +4619,21 @@
           <t xml:space="preserve"> İSMET İNÖNÜ MAH. 2001 SK. NO: 64B ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2992,6 +4657,21 @@
           <t xml:space="preserve"> YENİ HAVAALANI YOLU NO:40  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3015,6 +4695,21 @@
           <t xml:space="preserve"> ANAFARTALAR CAD. NO:50  KEMERALTI / İZMİR</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3038,6 +4733,21 @@
           <t>SERİNTEPE                 MAHALLESİ 4279 SOKAK NO:48/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3061,6 +4771,21 @@
           <t xml:space="preserve"> FATİH MAH. 1180 SK.  NO: 5  İÇ KAPI NO: 1 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3084,6 +4809,21 @@
           <t xml:space="preserve"> ADALET MAHALLESİ MANAS BLV.  NO: 39/2211  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3107,6 +4847,21 @@
           <t>MERİÇ MAHALLESİ 5746/3 SOKAK NO:1/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3130,6 +4885,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAHALLESİ 74 SK.  NO: 1  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3153,6 +4923,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. 74 SK. DURU LOJISTIK BLOK  NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3176,6 +4961,21 @@
           <t>EGEMENLİK MAHALLESİ 6132 SOKAK NO: 3A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3199,6 +4999,21 @@
           <t>BALATÇIK MAHALLESİ 8901 SOKAK NO:42-17/1 EGE SANAYİ SİTESİ ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3222,6 +5037,21 @@
           <t>TUNA                      MAHALLESİ İBRAHİM YILMAZ SK. NO:21/2  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3245,6 +5075,21 @@
           <t>OSMANGAZİ                 MAHALLESİ 597 SOKAK NO:36/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3268,6 +5113,21 @@
           <t>TUNA                      MAHALLESİ 1717 SK. NO:82/E  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3291,6 +5151,21 @@
           <t xml:space="preserve"> DOĞANAY MAH. ULU ÖNDER CAD. KÖROĞLU NO: 88B İÇ KAPI NO: B KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3314,6 +5189,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3201 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3337,6 +5227,21 @@
           <t xml:space="preserve"> AKÇAY CD. NO:9/1  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3360,6 +5265,21 @@
           <t xml:space="preserve"> YENİŞEHİR MAH. 1249 SK.  NO: 11B KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3383,6 +5303,21 @@
           <t xml:space="preserve"> AKINCILAR MAH. AKDOĞAN CAD. NO: 124F BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3406,6 +5341,21 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ 1762 SK. NO:9  DAİRE:1 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3429,6 +5379,21 @@
           <t xml:space="preserve"> YALI  6440/1  NO:NO:33/4 KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3452,6 +5417,21 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK MAĞAZA NUMARA:B004(28/F) FORUM BORNOVA BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3475,6 +5455,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3  İÇ KAPI NO:125  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3498,6 +5493,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z12 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3521,6 +5531,21 @@
           <t>MAVİŞEHİR                 MAHALLESİ CAHER DUDAYEV BULVARI NO:40  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3544,6 +5569,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. TALATPAŞA BUL. SEVSAY BLOK  NO: 14A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3567,6 +5607,21 @@
           <t>KEMALPAŞA                 MAHALLESİ KEMALPAŞA CADDESI NO:332  PINARBAŞI BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3590,6 +5645,21 @@
           <t xml:space="preserve"> BALATÇIK  8901/3  NO:1/G ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3613,6 +5683,21 @@
           <t xml:space="preserve"> KONAK MAH. MÜCİBUR RAHMAN SK. SALİHAĞA İŞHANI NO: 3 İÇ KAPI NO: 220 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3636,6 +5721,21 @@
           <t xml:space="preserve"> ÜÇKUYULAR MAH. 12 SK. NO: 31 İÇ KAPI NO: 2 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3659,6 +5759,21 @@
           <t xml:space="preserve"> NERGİZ MAH. NİHAT DAĞDELEN SK. ÇAĞDAŞ NO: 6A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3682,6 +5797,21 @@
           <t xml:space="preserve"> 1316 SOKAK NO:24/9  ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3705,6 +5835,21 @@
           <t xml:space="preserve"> AKDENİZ MAHALLESİ ŞEHİT FETHİBEY CAD. NO: 55/091 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3728,6 +5873,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. 1385 SK. YENİ ASIR  İŞ MERKEZİ NO: 3  İÇ KAPI NO: 23 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3751,6 +5911,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5750 SK. NO: 2A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3774,6 +5949,21 @@
           <t xml:space="preserve"> HÜRRİYET MAH. SÜLEYMAN DEMİREL BUL. NO: 18-A25 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3797,6 +5987,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAHALLESİ 1593/1 SK. LIDER CENTRIO APT.  NO: 2/67  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3820,6 +6025,21 @@
           <t xml:space="preserve"> ONUR MAH. ZAMBAK SK. UĞUR NO: 37/B İÇ KAPI NO: 14 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3843,6 +6063,21 @@
           <t xml:space="preserve"> MUSALLA MAHALLESİ 1016 SK.  NO: 2 /5F  ÇEŞME/İZMİR  / </t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3866,6 +6101,21 @@
           <t>KÜLTÜR                    MAHALLESİ ALİ ÇETİNKAYA BULVARI NO: 14 A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3889,6 +6139,21 @@
           <t>GÜZELYALI MAHALLESİ MİTHATPAŞA CD. NO:1068/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3912,6 +6177,21 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CADDESİ KENET SİTESİ BLOK  NO: 134B  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3935,6 +6215,21 @@
           <t xml:space="preserve"> MAVİŞEHİR MAH. AZİZ NESİN BUL. NO: 24 İÇ KAPI NO: Z21 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3958,6 +6253,21 @@
           <t>ONUR                      MAHALLESİ MİTHATPAŞA CAD. NO:37/A/A  BALÇOVA BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3981,6 +6291,21 @@
           <t>BEYAZEVLER                MAHALLESİ AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ BLOK  NO: 101  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4004,6 +6329,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4027,6 +6367,21 @@
           <t>YALI MAHALLESİ 6470/1 SOK.   NO: 8  İÇ KAPI NO: 2  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4050,6 +6405,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 30 İÇ KAPI NO: 129 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4073,6 +6443,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAH. 4174 SK. A NO: 84 İÇ KAPI NO: Z37 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4096,6 +6481,21 @@
           <t>EVKA-3 MAHALLESİ CENGİZHAN CADDESİ A Apt.  NO: 47 D BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4119,6 +6519,21 @@
           <t xml:space="preserve"> NERGİZ NİHAT DAĞDELEN 6002 SOK. NO:6/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4142,6 +6557,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3  İÇ KAPI NO: 1B153  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4165,6 +6595,21 @@
           <t>BOSTANLI                  MAHALLESİ 1794 SK. NO:17/B  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4188,6 +6633,21 @@
           <t>BALATÇIK                  MAHALLESİ 8901 SK. NO:42/11  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4211,6 +6671,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAHALLESİ ŞAİR EŞREF BLV. İHSAN KAYIN PLAZA APT.  NO: 15/83  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4234,6 +6709,21 @@
           <t>TUNA MAH. MAHALLESİ 5627/2 SOKAK NO:8  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4257,6 +6747,21 @@
           <t xml:space="preserve"> ALAÇATI MAH. ALAÇATI ATATÜRK BUL. NO: 64A ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4280,6 +6785,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4303,6 +6823,21 @@
           <t>ATAŞEHİR MAHALLESİ 8271/2 SK PELİT BLOK  NO: 4A ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4326,6 +6861,21 @@
           <t>İSMET KAPTAN              MAHALLESİ 1371 SOKAK NO: 3A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4349,6 +6899,21 @@
           <t>ADALET MAHALLESİ MANAS  BULVARI NO: 47B  İÇ KAPI NO: 3406 BAYRAKLI  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4372,6 +6937,21 @@
           <t xml:space="preserve"> HALKAPINAR  1202  NO:55/1E KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4395,6 +6975,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. GİRNE BUL. SUAT HANIM NO: 51/2 İÇ KAPI NO: 3 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4418,6 +7013,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAH. 6167 SK. B BLOK  NO: 28A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4441,6 +7051,21 @@
           <t xml:space="preserve"> İTOB OSB MAHALLESİ 10007 SK.  NO: 3/_  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4464,6 +7089,21 @@
           <t xml:space="preserve"> ERZENE MAH. 8 SK. NO: 6G BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4487,6 +7127,21 @@
           <t xml:space="preserve"> LATİFE HANIM MAH. BAŞ PEHLİVAN KARAALİ CAD. NO: 296A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4510,6 +7165,21 @@
           <t xml:space="preserve"> KONAK MAHALLESİ 860 SK.  NO: 14 D  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4533,6 +7203,21 @@
           <t>CUMHURİYET                MAHALLESİ ALİM DAĞHAN SK. NO: 1 /1/15 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4556,6 +7241,21 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/147  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4579,6 +7279,21 @@
           <t>ÇAMLIKULE                 MAHALLESİ 254 SK. NO:149/A   İÇ KAPI NO: A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4602,6 +7317,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. CUMHURİYET BUL. ELBİR İŞHANI NO: 84 İÇ KAPI NO: 101 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4625,6 +7355,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAH. 7416/3 SK. NO: 8 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4648,6 +7393,21 @@
           <t>TEKELİ ATATÜRK MAHALLESİ KAZIM KARABEKİR CAD. A BLOK  NO: 28AD  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4671,6 +7431,21 @@
           <t>YENİGÜN                   MAHALLESİ 1313 SOKAK NO:7/B/B  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4694,6 +7469,21 @@
           <t xml:space="preserve"> 5747 SOKAK NO:42 MTK SİTESİ 6025 ADA ÇAMDİBİ / İZMİR</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4713,6 +7503,21 @@
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4736,6 +7541,21 @@
           <t>KAZIM DİRİK MAHALLESİ FEVZİ ÇAKMAK CAD. NO:24/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4759,6 +7579,21 @@
           <t xml:space="preserve"> KÖYİÇİ MAH. ANADOLU CAD. NO: 786A ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4782,6 +7617,21 @@
           <t>GONCALAR                  MAHALLESİ GİRNE BULVARI NO:173  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4805,6 +7655,21 @@
           <t>YALI MAHALLESİ MİTHATPAŞA CAD. NO:108/A/0  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4828,6 +7693,21 @@
           <t>EŞREFPAŞA MAHALLESİ EŞREFPAŞA CAD.  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4851,6 +7731,21 @@
           <t>İSMET KAPTAN MAHALLESİ ŞAİR EŞREF BULVARI NO:7  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4874,6 +7769,21 @@
           <t>MERİÇ                     MAHALLESİ 5748/3 SOKAK NO:19/3  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4897,6 +7807,21 @@
           <t>YEŞİLOVA                  MAHALLESİ 4040 SOKAK NO: 39  İÇ KAPI NO: 1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4920,6 +7845,21 @@
           <t xml:space="preserve"> ATA CD. NO:44/A  BALÇOVA BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4943,6 +7883,21 @@
           <t xml:space="preserve"> FULYA SK. NO:3  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4966,6 +7921,21 @@
           <t>FIRAT                     MAHALLESİ 271 SK. NO: 14A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4989,6 +7959,21 @@
           <t xml:space="preserve"> YENİŞEHİR  1145/2  NO:7/A KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5012,6 +7997,21 @@
           <t>ADALET MAHALLESİ ANADOLU CADDESİ NO:41/101 MEGAPOL TOWER Apt.   BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5035,6 +8035,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAH. CAHER DUDAYEV BUL. KOÇTAŞ NO: 7 İÇ KAPI NO: 103 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5058,6 +8073,21 @@
           <t>ALTINORDU                 MAHALLESİ ANAFARTALAR CADDESİ NO:764  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5081,6 +8111,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 1593/1 SK. İNŞAAT NO: 4  İÇ KAPI NO: 5 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5104,6 +8149,21 @@
           <t xml:space="preserve"> GÖKSU MAH. 691/4 SK.  NO: 1B BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5127,6 +8187,21 @@
           <t>NAİPLİ MAHALLESİ MAHALLESİ ŞİİR SK. NO:22  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5150,6 +8225,21 @@
           <t xml:space="preserve"> ADALET MAH. 1645/7 SK. NO: 32 İÇ KAPI NO: 1 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5173,6 +8263,21 @@
           <t>ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS Apt.  NO: 47 B/2601 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5196,6 +8301,21 @@
           <t>ADALET MAHALLESİ ANADOLU  CAD. NO:41/101  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5219,6 +8339,21 @@
           <t xml:space="preserve"> FATİH MAH. 1191 SK.  NO: 5/9 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5242,6 +8377,21 @@
           <t xml:space="preserve"> 1203 SK. NO:18  SARNIÇ GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5265,6 +8415,21 @@
           <t xml:space="preserve"> İÇMELER MAH. TEKKE CAD. MENESKÖY NO: 12/3 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5288,6 +8453,21 @@
           <t>MANSUROĞLU MAHALLESİ ANKARA CAD. NO:81 İÇ KAPI NO: 011 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5311,6 +8491,21 @@
           <t>ALAÇATI MAHALLESİ 11078 SOK. NO:54/A  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5334,6 +8529,21 @@
           <t>AOSB MAHALLESİ 10014 SK. LUXATICA GÖZLÜK Apt.  NO: 13 ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5357,6 +8567,21 @@
           <t xml:space="preserve"> MANSUROĞLU  284/1  NO: NO:11 KAT:3/10 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5380,6 +8605,21 @@
           <t xml:space="preserve"> 1526 SK. NO:2  YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -5403,6 +8643,21 @@
           <t>YENİKALE                  MAHALLESİ ÖMÜR SK. SMYRNA PARK EVLERİ Sit.C6-BLOK Apt.NO:12 F/1 NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5426,6 +8681,21 @@
           <t>FATİH                     MAHALLESİ 1193 SOKAK NO:5/0  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5449,6 +8719,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. ÜNİVERSİTE CAD. NO: 124O BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5472,6 +8757,21 @@
           <t xml:space="preserve"> ZÜBEYDE HANIM MAH. 7448/4 SK. NO: 33 İÇ KAPI NO: 104 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5495,6 +8795,21 @@
           <t>MANSUROĞLU MAHALLESİ 286/3 SOKAK NO: 14B BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5518,6 +8833,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5537,6 +8867,21 @@
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -5560,6 +8905,21 @@
           <t>BOSTANLI                  MAHALLESİ CEMAL GÜRSEL CADDESİ NO:494/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -5583,6 +8943,21 @@
           <t xml:space="preserve"> HACI İSA MAH. YENİ OTOPARK SK.  NO: 4  İÇ KAPI NO: 231 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5606,6 +8981,21 @@
           <t xml:space="preserve"> ŞİRİNKENT MAH. 4228/1 SK. 2 NO.LU NO: 25/2 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5629,6 +9019,21 @@
           <t>YELKİ MAHALLESİ 2725 SOKAK NO: 1/C4-C11 GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5652,6 +9057,21 @@
           <t>FATİH MAHALLESİ 1186 SOKAK NO:3/1  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5675,6 +9095,21 @@
           <t>YALI                      MAHALLESİ 6522 SK. HİLLTOVVN AVM Sit. İNŞAAT Apt.  NO: 3  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5698,6 +9133,21 @@
           <t>TUNA                      MAHALLESİ KEMALPAŞA CAD. 1717 SOKAK NO:46/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5721,6 +9171,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO:3 İÇ KAPI NO:1B142 BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5744,6 +9209,21 @@
           <t>MAVİŞEHİR                 MAHALLESİ AZİZ NESİN BULVARI NO:24  KAT:1 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5767,6 +9247,21 @@
           <t>BEYAZEVLER                MAHALLESİ AKÇAY CAD. NO:101  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5790,6 +9285,21 @@
           <t>AKDENİZ                   MAHALLESİ ŞEHİT FETHİBEY CADDESİ HERİS TOWER BLOK  NO: 55  İÇ KAPI NO: 091 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5813,6 +9323,21 @@
           <t>ATATÜRK                   MAHALLESİ BARBAROS CADDESI NO:128/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5836,6 +9361,21 @@
           <t xml:space="preserve"> YENİGÜN MAH. NAZIM HİKMET CAD. A BLOK  NO: 70A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5859,6 +9399,21 @@
           <t>YILDIZ                    MAHALLESİ 200/12 SK. ALNUR BLOK  NO: 33B BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5882,6 +9437,21 @@
           <t>FİKRİ ALTAY MAHALLESİ GÜN SAZAK BULVARI NO:160/B  KARŞIYAKA / İZMİR</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5905,6 +9475,21 @@
           <t>HALKAPINAR MAHALLESİ 1203 SOK. OSMAN SÖĞÜTLÜ İŞMERK Apt.  NO: 4 A/A   KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5928,6 +9513,21 @@
           <t xml:space="preserve"> MAHALLESİ ANADOLU CAD. MEGAPOL TOWER BLOK  NO: 41  İÇ KAPI NO: 081 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5951,6 +9551,21 @@
           <t xml:space="preserve"> DOKUZ EYLÜL MAH. 316 SK. NO: 2 İÇ KAPI NO: 1 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5970,6 +9585,21 @@
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -5993,6 +9623,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6016,6 +9661,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. FEVZİPAŞA BUL. AZİMHAN İŞ MERKEZİ NO: 17A İÇ KAPI NO: A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6035,6 +9695,21 @@
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6058,6 +9733,21 @@
           <t xml:space="preserve"> ADALET MAH. ANADOLU CAD. MEGAPOL TOWER BLOK  NO: 41  İÇ KAPI NO: 101 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6081,6 +9771,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6104,6 +9809,21 @@
           <t xml:space="preserve"> REİS MAH. ORDU CAD. EFSANE BLOK  NO: 69B KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6127,6 +9847,21 @@
           <t xml:space="preserve"> MERİÇ MAHALLESİ 5746/4 SK. NO: 24/21 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6150,6 +9885,21 @@
           <t xml:space="preserve"> EVKA 3 MAH. 119/9 SK. HILAL SİTESİ NO: 5/3G BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6173,6 +9923,21 @@
           <t>MAVİŞEHİR                 MAHALLESİ CAHAR DUDAYEV BULVARI NO:40  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6192,6 +9957,21 @@
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -6215,6 +9995,21 @@
           <t xml:space="preserve"> KAHRAMANDERE MAH. 852 SK. NO: 1B GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6238,6 +10033,21 @@
           <t>SİTELER MAHALLESİ NO:4 452 SK. GÜZELBAHÇE GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6261,6 +10071,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 1593/1 SK. NO: 28B BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -6284,6 +10109,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. KURTULUŞ CAD. KURTULUŞ NO: 23B BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -6307,6 +10147,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 28 İÇ KAPI NO: 111 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -6326,6 +10181,21 @@
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6349,6 +10219,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAH. YENİHAVAALANI CAD. ÇİĞLİ KİPA BLOK  NO: 40  İÇ KAPI NO: Z94 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -6372,6 +10257,21 @@
           <t xml:space="preserve"> YALI MAH. 6522 SK.  NO: 3  İÇ KAPI NO: 139 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -6395,6 +10295,21 @@
           <t xml:space="preserve"> TUNA MAH. KEMALPAŞA CAD. AVLAR PASAJI BLOK  NO: 90  İÇ KAPI NO: Z01 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -6418,6 +10333,21 @@
           <t xml:space="preserve"> ŞEMİKLER MAH. ORDU BUL. MEHMET BEY NO: 224D KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6441,6 +10371,21 @@
           <t xml:space="preserve"> HACI İSA MAHALLESİ 75.YIL CUMHURİYET CAD.  NO: 5/2  URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -6464,6 +10409,21 @@
           <t xml:space="preserve"> KAHRAMANLAR MAH. 1416 SK. NO: 29 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6487,6 +10447,21 @@
           <t>ERZENE MAHALLESİ KAZIM KARABEKİR CAD. ÖZTÜRK İŞ MERKEZİ BLOK NO: 5/1 İÇ KAPI NO:31 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6510,6 +10485,21 @@
           <t>YUNUS EMRE MAHALLESİ 7513/1 SOK. NO: 2F BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6533,6 +10523,21 @@
           <t xml:space="preserve"> DONANMACI MAH. YALI BUL. TAN NO: 302 İÇ KAPI NO: 2 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6556,6 +10561,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. ŞEHİT KADİR TURUNÇ SK. ÖZVARDAR BLOK  NO: 19  İÇ KAPI NO: 5 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6579,6 +10599,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAH. KEMALPAŞA CAD. NO: 332 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6602,6 +10637,21 @@
           <t xml:space="preserve"> 7099 SOKAK NO:17  PINARBAŞI BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6625,6 +10675,21 @@
           <t>ÇINAR MAHALLESİ 5003/3 SK. NO: 3/303  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6648,6 +10713,21 @@
           <t>MERİÇ                     MAHALLESİ 5748/1 SOKAK NO:10/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -6671,6 +10751,21 @@
           <t xml:space="preserve"> ONUR MAH. LİMON SK. DURU NO: 1 İÇ KAPI NO: 73 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6694,6 +10789,21 @@
           <t xml:space="preserve"> BARBAROS MAH. 5301/2 SK. NO: 4 İÇ KAPI NO: 3 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -6717,6 +10827,21 @@
           <t xml:space="preserve"> BUCAOSB MAHALLESİ 2/20 SK. BEGOS SİT.  NO: 26  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -6740,6 +10865,21 @@
           <t>AKDENİZ MAHALLESİ ŞEHİT FETHİ BEY CAD. PENPAR İŞHANI BLOK  NO: 49  İÇ KAPI NO: 21  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6759,6 +10899,21 @@
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6782,6 +10937,21 @@
           <t xml:space="preserve"> ALAÇATI MAH. 13002 SK. NO: 8 ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6805,6 +10975,21 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ 1762 SK. NO: 9  İÇ KAPI NO: 1 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6828,6 +11013,21 @@
           <t>UĞUR MUMCU                MAHALLESİ 8790/9 SK. NO:19  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6851,6 +11051,21 @@
           <t xml:space="preserve"> ERZENE MAH. GENÇLİK CAD. NO: 11 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6874,6 +11089,21 @@
           <t xml:space="preserve"> LATİFE HANIM MAH. 7686 SK.  NO: 12/1 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6897,6 +11127,21 @@
           <t>KEMALPAŞA OSB MAHALLESİ 41 SOKAK NO:20/1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6920,6 +11165,21 @@
           <t>MAVİŞEHİR                 MAHALLESİ CAHER DUDAYEV BULVARI A Apt.  NO: 40/208   KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6943,6 +11203,21 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. OPTİMUM ALIŞVERİŞ  MERKEZİ Apt.  NO: 103/0 GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -6966,6 +11241,21 @@
           <t xml:space="preserve"> YAMANLAR MAH. 7334 SK. NO: 6A BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -6989,6 +11279,21 @@
           <t>ŞİRİNYER MAHALLESİ FORBES CD. NO:26  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7012,6 +11317,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CADDESİ NO:965/B  GÜZELYALI KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7035,6 +11355,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. CEMAL GÜRSEL CAD. NO: 83 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7058,6 +11393,21 @@
           <t xml:space="preserve"> 1382 SOK. NO:17/17A  ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -7081,6 +11431,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CADDESI  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -7104,6 +11469,21 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK NO:10  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -7127,6 +11507,21 @@
           <t>BAHÇELERARASI             MAHALLESİ MİTHATPAŞA CADDESİ NO:28  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -7150,6 +11545,21 @@
           <t>BASIN SİTESİ MAHALLESİ ŞEHİT CEYSU CEYLAN CAD. NO:112/A  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -7173,6 +11583,21 @@
           <t>YALI                      MAHALLESİ 6522 SK. NO:3  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -7196,6 +11621,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD.  NO: 3  İÇ KAPI NO: 1B143 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -7219,6 +11659,21 @@
           <t>KONAK                     MAHALLESİ MİLLİ KÜTÜPHANE CADDESİ NO:6/D  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -7242,6 +11697,21 @@
           <t>MAVİŞEHİR                 MAHALLESİ AZİZ NESİN BULVARI NO:24  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -7265,6 +11735,21 @@
           <t>GÜNEŞLİ                   MAHALLESİ EŞREFPAŞA CADDESİ NO:408  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -7288,6 +11773,21 @@
           <t>YEŞİLOVA MAHALLESİ 4174 SK. NO:84  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -7307,6 +11807,21 @@
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -7330,6 +11845,21 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/109  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -7353,6 +11883,21 @@
           <t>TUNA MAHALLESİ KEMALPAŞA CAD. NO:152/1  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -7376,6 +11921,21 @@
           <t xml:space="preserve"> YENİ HAVAALANI YOLU NO:40  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -7399,6 +11959,21 @@
           <t xml:space="preserve"> KIBRIS ŞEHİTLERİ CD.1443 SK. NO:5/A  ALSANCAK KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -7422,6 +11997,21 @@
           <t>BEYAZ EVLER MAHALLESİ  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -7445,6 +12035,21 @@
           <t xml:space="preserve"> KIBRIS ŞEHİTLERİ CAD. 1443 SOK. NO:4/B  ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -7468,6 +12073,21 @@
           <t xml:space="preserve"> 10005 SOKAK NO:1 İTOB ORG.SAN.BÖLG. TEKELİ MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -7491,6 +12111,21 @@
           <t>MANSUROĞLU MAHALLESİ 286/3  SOK. NO:4  DAİRE:7 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -7514,6 +12149,21 @@
           <t>HÜRRİYET                  MAHALLESİ 465 SK. NO:10 A/A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -7537,6 +12187,21 @@
           <t>UFUK MAHALLESİ FEVZİ ÇAKMAK CAD. NO:204/B/B  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -7560,6 +12225,21 @@
           <t>ALPASLAN MAHALLESİ 1620/5  SOK. NO:1/B  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -7583,6 +12263,21 @@
           <t>MERSİNLİ                  MAHALLESİ 1202/2 SOKAK TEMSİL PLAZA Apt.  NO: 80 K  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -7606,6 +12301,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1203 SK.  NO: 8  İÇ KAPI NO: 25 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -7629,6 +12339,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 1593/1 SK. NO: 10 İÇ KAPI NO: 46 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -7652,6 +12377,21 @@
           <t>TUNA                      MAHALLESİ KEMAL PAŞA CADDESİ NO: 70C  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -7675,6 +12415,21 @@
           <t>MAVİŞEHİR                 MAHALLESİ AZİZ NESİN BULVARI B BLOK  NO: 26  İÇ KAPI NO: 120 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -7698,6 +12453,21 @@
           <t xml:space="preserve"> YALI MAH. 6522 SK. NO: 3 İÇ KAPI NO: 151 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -7721,6 +12491,21 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ BLOK  NO: 101  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -7744,6 +12529,21 @@
           <t xml:space="preserve"> GÖKSU MAH. 668 SK.  NO: 20A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -7767,6 +12567,21 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. NO:24/12  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -7790,6 +12605,21 @@
           <t>AKDENİZ                   MAHALLESİ GAZİ OSMAN PAŞA BULVARI NO:8  KAT:2 / İZMİR</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -7813,6 +12643,21 @@
           <t>ADALET MAHALLESİ ANADOLU CAD. NO:41  MEGAPOL TOWER BLOK DAİRE:101 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -7836,6 +12681,21 @@
           <t xml:space="preserve"> KÜLTÜR   1382   NO:NO:20 /A   KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -7859,6 +12719,21 @@
           <t>İTOB OSB MAHALLESİ 10036 SK NO: 13  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -7882,6 +12757,21 @@
           <t xml:space="preserve"> FUAT EDİP BAKSI MAHALLESİ CÜNEYT SİVARİOĞULLARI SK.  NO: 5/11  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -7905,6 +12795,21 @@
           <t>MERİÇ                     MAHALLESİ 5748/3 SOKAK NO:19 İÇ KAPI NO: 3 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -7928,6 +12833,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAH. 8229/2 SK.  NO: 5 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -7951,6 +12871,21 @@
           <t xml:space="preserve"> YEŞİLBAĞLAR MAHALLESİ 647/1 SK.  NO: 63 -65/2  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -7974,6 +12909,21 @@
           <t>OSMANGAZİ MAHALLESİ 597/3  SOK.  NO: 12  İÇ KAPI NO: 15 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -7997,6 +12947,21 @@
           <t xml:space="preserve"> OVACIK MAH. 7000 SK.  NO: 60  İÇ KAPI NO: 3 ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -8020,6 +12985,21 @@
           <t>AKDENİZ                   MAHALLESİ VALİ KAZIM DİRİK CADDESİ NO:4/22 GAYRET HAN BLOK   KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -8043,6 +13023,21 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 39  İÇ KAPI NO: 3803 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -8066,6 +13061,21 @@
           <t xml:space="preserve"> MENDERES MAHALLESİ 149/1 SK. NO:30  SARNIÇ GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -8089,6 +13099,21 @@
           <t xml:space="preserve"> ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41 İÇ KAPI NO: 081 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -8108,6 +13133,21 @@
         </is>
       </c>
       <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -8131,6 +13171,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL.  NO: 39  İÇ KAPI NO: 3408 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -8154,6 +13209,21 @@
           <t xml:space="preserve"> 1382 SOKAK NO:21/A-B  ALSANCAK KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -8177,6 +13247,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3  İÇ KAPI NO: 124 BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -8200,6 +13285,21 @@
           <t>MAVİŞEHİR                 MAHALLESİ AZİZ NESİN BULVARI NO:26  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -8223,6 +13323,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CADDESİ  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -8246,6 +13361,21 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK  D Apt.  NO: 26 O  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -8269,6 +13399,21 @@
           <t>YALI                      MAHALLESİ 6522 SK. NO:3  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -8292,6 +13437,21 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:103  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -8315,6 +13475,21 @@
           <t>YENİGÜN MAHALLESİ 271/11 SK. NO: 1  İÇ KAPI NO: 7 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -8338,6 +13513,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. ŞEHİT FETHİBEY CAD. 99 BASAMAK İŞ MERKEZİ NO: 43 İÇ KAPI NO: 13 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -8357,6 +13547,21 @@
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -8380,6 +13585,21 @@
           <t xml:space="preserve"> CENNETOĞLU MAH. YEŞİLLİK CAD. SELGEÇEN MODEKO NO: 228-230 İÇ KAPI NO: 613 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -8403,6 +13623,21 @@
           <t>ADALET MAHALLESİ MANAS BUL.  FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO: 34 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -8426,6 +13661,21 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 39  İÇ KAPI NO: 3408 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -8449,6 +13699,21 @@
           <t>MUSTAFA KEMAL MAHALLESİ 6753/7 SK. MUSTAFA KEMAL MH.KAPALI PAZAR YERİ BLOK NO:5C KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -8472,6 +13737,21 @@
           <t xml:space="preserve"> İNÖNÜ MAH. 672/13 SK. NO: 14 İÇ KAPI NO: 1 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -8491,6 +13771,21 @@
         </is>
       </c>
       <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -8514,6 +13809,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. ALİ ÇETİNKAYA BUL. TÜTÜN BLOK  NO: 19A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -8537,6 +13847,21 @@
           <t>TUNA MAHALLESİ KEMALPAŞA CAD. NO: 50  İÇ KAPI NO: 1 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -8560,6 +13885,21 @@
           <t>ADALET MAHALLESİ 2131/11  SOK. NO:3/1  İNŞAAT BLOK   BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -8583,6 +13923,21 @@
           <t>ADALET MAHALLESİ 2131/11  SOK. İNŞAAT BLOK  NO: 3  İÇ KAPI NO: 1 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -8606,6 +13961,21 @@
           <t>İSMET KAPTAN MAHALLESİ 1362 SOK. BÜYÜK ÇAMLIBEL IS MERKEZI Apt.  NO: 30/803 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -8629,6 +13999,21 @@
           <t>KÜLTÜR                    MAHALLESİ MEKSİKA SOKAK NO: 14 A/14A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -8652,6 +14037,21 @@
           <t>YALI                      MAHALLESİ 6522 SK. HİLLTOVVN AVM Apt.  NO: 3 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -8675,6 +14075,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3  İÇ KAPI NO: 161 BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -8698,6 +14113,21 @@
           <t xml:space="preserve"> MUAMMER AKAR MAH. 45/5 SK. NO: 9 İÇ KAPI NO: 8 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -8721,6 +14151,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B  İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -8744,6 +14189,21 @@
           <t xml:space="preserve"> GÖZTEPE MAH. 82 SK. YAPRAK NO: 17 İÇ KAPI NO: 4 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -8767,6 +14227,21 @@
           <t>ADALET MAHALLESİ MANAS BUL. FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO:2601 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -8790,6 +14265,21 @@
           <t>YEŞİLOVA MAHALLESİ 4012/1 SOKAK KEMAL BEY SİTESİ E BLOK  NO: 1/4B BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -8813,6 +14303,21 @@
           <t xml:space="preserve"> FATİH MAHALLESİ 1142 SK.  NO: 45/0  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -8836,6 +14341,21 @@
           <t xml:space="preserve"> ATİLLA MAH. 499 SK. ALİ RIZA BEY NO: 19C KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -8859,6 +14379,21 @@
           <t xml:space="preserve"> 2/20  SOKAK NO:26  3.BÖLGE BEGOS BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -8882,6 +14417,21 @@
           <t>DOĞANLAR                  MAHALLESİ 1606 SOKAK NO:3  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -8905,6 +14455,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. NEBİL SUSUP SK. ARI NO: 145A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -8928,6 +14493,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 295/2 SK. EGE SUN PLAZA NO: 1/1 İÇ KAPI NO: 45 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -8951,6 +14531,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAHALLESİ 4174/5 SK.  NO: 1/69  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -8974,6 +14569,21 @@
           <t>MERİÇ                     MAHALLESİ 5746/10 SOKAK NO:9  KAT:2 ÇAMDİBİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -8997,6 +14607,21 @@
           <t xml:space="preserve"> 1526 SOK. NO:2/B GIDA ÇARŞISI YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -9020,6 +14645,21 @@
           <t xml:space="preserve"> ADALET MAH. ANADOLU CAD. TEPEKULE İŞ MERKEZİ BLOK  NO: 40  İÇ KAPI NO: 505 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -9043,6 +14683,21 @@
           <t xml:space="preserve"> TUNA MAH. 5501 SK. NO: 6 İÇ KAPI NO: 21 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -9066,6 +14721,21 @@
           <t xml:space="preserve"> BARIŞ MAH. 4547 SK.  NO: 9A  İÇ KAPI NO: A KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -9089,6 +14759,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAHALLESİ 372 SK. NO: 38 G/ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -9112,6 +14797,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD.  NO: 3  İÇ KAPI NO: Z61 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -9135,6 +14835,21 @@
           <t xml:space="preserve"> YALI MAHALLESİ 6522 SK.  NO: 3  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -9158,6 +14873,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1203/11 SK. K.HASAN ATLI İŞMERK. NO: 4 İÇ KAPI NO: 519 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -9181,6 +14911,21 @@
           <t>GÜZELYALI                 MAHALLESİ 39 SOKAK NO:27/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -9204,6 +14949,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAHALLESİ 367/6 SK.  NO: 9 D  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -9227,6 +14987,21 @@
           <t xml:space="preserve"> 1202 SOKAK NO:55/1-H  YENİŞEHİR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -9250,6 +15025,21 @@
           <t xml:space="preserve"> 1379 SOKAK NO:23/2  ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -9273,6 +15063,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 28 İÇ KAPI NO: Z09 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -9296,6 +15101,21 @@
           <t xml:space="preserve"> 1382 SOKAK NO:16/A  ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -9319,6 +15139,21 @@
           <t>MUSALLA MAHALLESİ 1016 SOK. NO:2/5-E  ÇEŞME MARİNA ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -9342,6 +15177,21 @@
           <t xml:space="preserve"> ATATÜRK CADDESİ NO:19  / İZMİR</t>
         </is>
       </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -9365,6 +15215,21 @@
           <t xml:space="preserve"> AOSB MAHALLESİ 10003 SK. FELDA IFFCO GIDA APT.  NO: 3/0  ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -9388,6 +15253,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAH. 7098/3 SK. NO: 31 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -9411,6 +15291,21 @@
           <t>KÜLTÜR                    MAHALLESİ TALATPAŞA BULVARI SEVSAY BLOK  NO: 14A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -9434,6 +15329,21 @@
           <t>İSMET KAPTAN MAHALLESİ ŞEVKET ÖZÇELİK SOK. NO:53 AKIN İŞHANI BLOK  İÇ KAPI NO: Z03 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -9457,6 +15367,21 @@
           <t xml:space="preserve"> GÖLCÜKLER MAH. 900 SK.  NO: 23/1 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -9480,6 +15405,21 @@
           <t>CUMHURİYET                MAHALLESİ 6701 SK. NO: 39  İÇ KAPI NO: 10  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -9503,6 +15443,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO:3/Z  DAİRE:74 BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -9526,6 +15481,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3  İÇ KAPI NO: 159 BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -9549,6 +15519,21 @@
           <t>BAHÇELERARASI             MAHALLESİ MİTHATPAŞA CADDESİ NO:32/Z06 AGORA A.V.M. BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -9572,6 +15557,21 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. NO:1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -9595,6 +15595,21 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. NO:1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -9618,6 +15633,21 @@
           <t>MİMAR SİNAN               MAHALLESİ 1430 SK. NO:4/1  ALSANCAK KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -9641,6 +15671,21 @@
           <t>BOSTANLI                  MAHALLESİ NEBİL SUSUP SK.  NO: 162  İÇ KAPI NO: 2 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -9664,6 +15709,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. 639 SK. NO: 8 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -9687,6 +15747,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5746/9 SK. NO: 2 İÇ KAPI NO: Z1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -9710,6 +15785,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -9733,6 +15823,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. KIBRIS ŞEHİTLERİ CAD. MAYIS NO: 4A İÇ KAPI NO: 4A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -9756,6 +15861,21 @@
           <t>GÜVEN                     MAHALLESİ MENDERES CADDESI NO:286/305  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -9779,6 +15899,21 @@
           <t>ERZENE MAHALLESİ 75 SOKAK SAYGIN BLOK  NO: 23A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -9802,6 +15937,21 @@
           <t>KAZIMDİRİK MAHALLESİ 375 SOKAK NO:18 K:2 D:203 PİRAMİT İŞ MERKEZİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -9825,6 +15975,21 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 39  İÇ KAPI NO: 2511 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -9848,6 +16013,21 @@
           <t>YEŞİLOVA MAHALLESİ 4053 SOKAK NO: 89A  İÇ KAPI NO: 1 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -9871,6 +16051,21 @@
           <t>KÜÇÜK ÇİĞLİ               MAHALLESİ 8702 SK. NO:3/A  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -9894,6 +16089,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAH. 6167 SK. B BLOK  NO: 28A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -9917,6 +16127,21 @@
           <t xml:space="preserve"> DONANMACI MAH. 1721 SK. MELEK PASAJI NO: 4 İÇ KAPI NO: 115 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -9940,6 +16165,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1145/1 SOKAK NO:48/2   KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -9963,6 +16203,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. KIBRIS ŞEHİTLERİ CAD. HAYDAR HOCA BLOK  NO: 43A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -9986,6 +16241,21 @@
           <t xml:space="preserve"> 10036 SOKAK NO:13  İTOB ORG. SAN. BÖLG. MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -10009,6 +16279,21 @@
           <t>FATİH                     MAHALLESİ 1191 SOK. NO:31/A  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -10032,6 +16317,21 @@
           <t xml:space="preserve"> KORUTÜRK MAHALLESİ ORTANCA SK. ORTANCA APT.  NO: 27/8  BALÇOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -10055,6 +16355,21 @@
           <t xml:space="preserve"> YENİ MAH. NECATİ CUMALI CAD. NO: 33 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -10078,6 +16393,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -10101,6 +16431,21 @@
           <t>ADALET MAHALLESİ MANAS BUL.  FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 2601 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -10124,6 +16469,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -10147,6 +16507,21 @@
           <t xml:space="preserve"> BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ  MERKEZİ NO: 103 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -10170,6 +16545,21 @@
           <t xml:space="preserve"> YELALTI MAH. ALTIN SK. NO: 1 İÇ KAPI NO: 7 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -10193,6 +16583,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5748 SK.  NO: 65  İÇ KAPI NO: 3 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -10212,6 +16617,21 @@
         </is>
       </c>
       <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -10235,6 +16655,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -10254,6 +16689,21 @@
         </is>
       </c>
       <c r="E430" t="inlineStr"/>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -10277,6 +16727,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAHALLESİ HÜRRİYET BLV.  NO: 11/32  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -10300,6 +16765,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. CUMHURİYET BUL. NO: 137 İÇ KAPI NO: 7 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -10323,6 +16803,21 @@
           <t>GAZİ MAHALLESİ MEHMET EMİN GÜRKAN CADDESİ NO:6/B   GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -10346,6 +16841,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAHALLESİ 8265/1 SK. NO: 3/29 ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -10369,6 +16879,21 @@
           <t xml:space="preserve"> ÇALIKUŞU MAH. COŞKUN KALE SK. NO: 13A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -10392,6 +16917,21 @@
           <t>KEMALPAŞA OSB MAHALLESİ 41 SOKAK NO:20/1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -10415,6 +16955,21 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. EBRU BLOK  NO: 30B  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -10438,6 +16993,21 @@
           <t>KONAK                     MAHALLESİ ANAFARTALAR CADDESİ NO:73  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -10461,6 +17031,21 @@
           <t>YALI                      MAHALLESİ 6507 SK. İNŞAAT BLOK  NO: 5  İÇ KAPI NO: 5 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -10484,6 +17069,21 @@
           <t xml:space="preserve"> TUNA MAH. 1710 SK. İŞHANI NO: 3 İÇ KAPI NO: 204 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -10507,6 +17107,21 @@
           <t xml:space="preserve"> YENİŞEHİR MAH. 1245 SK. NO: 15E KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -10530,6 +17145,21 @@
           <t>ADALET MAHALLESİ MANAS BULV. FOLKART TOWERS Apt.  NO: 47 B/2809   BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -10553,6 +17183,21 @@
           <t>AKDENİZ MAHALLESİ ŞEHİT FETHİ BEY CD. NO:55/091 HERİS TOWER Apt.   KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -10574,6 +17219,21 @@
       <c r="E444" t="inlineStr">
         <is>
           <t xml:space="preserve"> MAHALLESİ ALİ ÇETİNKAYA BULV. NO:50/1/4 DEMET APARTMANI KONAK           / İZMİR</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>KOZMETİK GRUBU</t>
         </is>
       </c>
     </row>

--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 20. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 20. komite.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J386"/>
+  <dimension ref="A1:I386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
     <col width="138" customWidth="1" min="8" max="8"/>
     <col width="101" customWidth="1" min="9" max="9"/>
-    <col width="22" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +475,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meslek Grubu Sayı</t>
+          <t>Meslek Grubu Numarası</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,11 +491,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tescilli Adresi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Meslek Grubu</t>
         </is>
       </c>
     </row>
@@ -542,11 +536,6 @@
           <t>EGEMENLİK MAH. 6130 SK. NO: 16/3 İÇ KAPI NO: 3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -590,11 +579,6 @@
           <t>İSTASYONALTI MAHALLESİ YENİ HAVAALANI YOLU NO:40 TESCO KİPA AVM 1.KAT MAĞAZA NO:55 ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,11 +622,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK NO:10 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,11 +665,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -734,11 +708,6 @@
           <t>BAHARİYE MAHALLESİ 1868 SK. NO: 14 F KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -782,11 +751,6 @@
           <t>GONCALAR MAHALLESİ GİRNE BULVARI NO:149-1A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,11 +794,6 @@
           <t>GÖZTEPE MAHALLESİ MİTHATPAŞA CAD. NO: 837 A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -878,11 +837,6 @@
           <t>ARAPHASAN MAHALLESİ İNÖNÜ CAD. NO:317/A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -926,11 +880,6 @@
           <t>YEŞİLOVA MAHALLESİ 4174 SOKAK NO:84/10 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -974,11 +923,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 32 İÇ KAPI NO: 105 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,11 +966,6 @@
           <t>ALAÇATI MAHALLESİ 11001 SK NO:7/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1070,11 +1009,6 @@
           <t>BOSTANLI MAHALLESİ CEMAL GÜRSEL CADDESİ NO:508/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1118,11 +1052,6 @@
           <t>SAKARYA MAHALLESİ 2001 SOKAK NO:119/1I ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1166,11 +1095,6 @@
           <t>AHMET EFENDİ MAHALLESİ HAVAALANI ŞOSESİ CAD. NO:2/A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1214,11 +1138,6 @@
           <t>ÇINARLI MAHALLESİ OZAN ABAY CADDESİ NO:8/B26 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1262,11 +1181,6 @@
           <t>GÜNEŞLİ MAHALLESİ EŞREFPAŞA CADDESİ NO:408/Z11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1310,11 +1224,6 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. NO:55 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1358,11 +1267,6 @@
           <t>AKDENİZ MAHALLESİ ATATÜRK CAD. NO:19/Z18 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,11 +1310,6 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULVARI NO:24/201 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1454,11 +1353,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ KIVANÇ SK. BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1502,11 +1396,6 @@
           <t>İSMAİL KAPTAN MAHALLESİ ŞAİR EŞREF BULV. NO:11/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1550,11 +1439,6 @@
           <t>ATATÜRK MAHALLESİ 6302 SOKAK NO:6/A GÜMÜLDÜR MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1598,11 +1482,6 @@
           <t>ÇAMLIKULE MAHALLESİ 290 SK. NO:27/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1646,11 +1525,6 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ 1834/2 SK. AHU BLOK NO: 10B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1694,11 +1568,6 @@
           <t>ZÜBEYDE HANIM MAH. 7448/4 SK. NO: 33 İÇ KAPI NO: 115 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1742,11 +1611,6 @@
           <t>BASIN SİTESİ MAHALLESİ 175/3 SOKAK NO: 17B İÇ KAPI NO: B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1790,11 +1654,6 @@
           <t>ALAYBEY MAH. METİN ALTIOK SK. NO: 25A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1838,11 +1697,6 @@
           <t>BAHÇELİEVLER MAH. ANADOLU CAD. NO: 323 İÇ KAPI NO: 9 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1886,11 +1740,6 @@
           <t>BADEMLER MAHALLESİ 15035/3 NO:2 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1934,11 +1783,6 @@
           <t>ATAŞEHİR MAHALLESİ YENİHAVAALANI CADDESİ NO:40/Z101 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1982,11 +1826,6 @@
           <t>GÜRPINAR MAHALLESİ 7236 NO:8/A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2030,11 +1869,6 @@
           <t>IRMAK MAHALLESİ HASAN GÜVEN CAD. C BLOK APT. NO: 69 -2C GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2078,11 +1912,6 @@
           <t>HUZUR MAHALLESİ FUL SK. NO:20 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2126,11 +1955,6 @@
           <t>LATİFE HANIM MAH. 7686 SK. NO: 12/1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2174,11 +1998,6 @@
           <t>KAZIMDİRİK MAHALLESİ 367/6 SK. NO: 9 D BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2222,11 +2041,6 @@
           <t>ZAFER MAHALLESİ TURGUT ÖZAL CAD. NO: 120 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2270,11 +2084,6 @@
           <t>AOSB MAHALLESİ 10016 SK. NO:35 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2318,11 +2127,6 @@
           <t>SASALI MERKEZ MAH. 52 SK. NO: 3A İÇ KAPI NO: A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2366,11 +2170,6 @@
           <t>MERİÇ MAH. 5748/1 SK. NO: 5 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2414,11 +2213,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z67 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2462,11 +2256,6 @@
           <t>FAHRETTİN ALTAY MAHALLESİ MİTHATPAŞA CADDESİ NO: 1173A İÇ KAPI NO: B01 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2510,11 +2299,6 @@
           <t>ATAŞEHİR MAH. ANADOLU CAD. NO: 897B ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2558,11 +2342,6 @@
           <t>MERİÇ MAHALLESİ 5746/10 SOKAK NO:23/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2606,11 +2385,6 @@
           <t>BELENBAŞI MAHALLESİ BEYLİK CAD. NO:65 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2654,11 +2428,6 @@
           <t>KORUTÜRK MAH. MELTEM SK. NO: 20A BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2702,11 +2471,6 @@
           <t>EVKA 3 MAHALLESİ 129/4 SK. NO: 36/11- BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2750,11 +2514,6 @@
           <t>MAVİŞEHİR MAH. AZİZ NESİN BUL. NO: 24 İÇ KAPI NO: 211 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2798,11 +2557,6 @@
           <t>ATIFBEY MAHALLESİ MALAZGİRT CAD. NO:5/A DEĞIŞENKENT Sit. GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2846,11 +2600,6 @@
           <t>KEMALPAŞA MAH. 7098/2 SK. NO: 80 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2894,11 +2643,6 @@
           <t>HALKAPINAR MAHALLESİ 1203/2 SOKAK NO:22 YENER İŞMERKEZİ BLOK İÇ KAPI NO: 218 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2942,11 +2686,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2990,11 +2729,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ BLOK NO: 103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3038,11 +2772,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z70 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3086,11 +2815,6 @@
           <t>OĞLANANASI ATATÜRK MAHALLESİ 4 CAD. NO: 15 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3134,11 +2858,6 @@
           <t>MERİÇ MAHALLESİ 5747 SOKAK NO:14/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3182,11 +2901,6 @@
           <t>MERİÇ MAHALLESİ 5746 SK. NO: 78/3 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3230,11 +2944,6 @@
           <t>HACI İSA MAHALLESİ 75.YIL CUMHURİYET CAD. NO:5 DAİRE:2 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3278,11 +2987,6 @@
           <t>ERZENE MAHALLESİ 33 SOKAK NO:7/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3326,11 +3030,6 @@
           <t>BARIŞ MAH. 4661 SK. NO: 2 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3374,11 +3073,6 @@
           <t>OSMAN AKSÜNER MAH. 5922 SK. NO: 6 İÇ KAPI NO: 101 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3422,11 +3116,6 @@
           <t>ALSANCAK MAH. ALİ ÇETİNKAYA BUL. PAKKAT NO: 25C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3470,11 +3159,6 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. NO:99 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3518,11 +3202,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. KİPA NO: 46 İÇ KAPI NO: Z10 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3566,11 +3245,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ NO: 101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3614,11 +3288,6 @@
           <t>R.ŞEVKET İNCE MAH. 2148/9 SK. NO: 1 İÇ KAPI NO: 1B61 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3662,11 +3331,6 @@
           <t>DONANMACI MAHALLESİ KEMALPAŞA CAD. NO:15/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3710,11 +3374,6 @@
           <t>ATAŞEHİR MAHALLESİ 8216 SOKAK NO:15/A ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3758,11 +3417,6 @@
           <t>YALI MAHALLESİ 6438 SK. NO: 4/10 KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3806,11 +3460,6 @@
           <t>KÜLTÜR MAHALLESİ 1389 SOKAK NO:8 DAİRE:2 ALSANCAK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3854,11 +3503,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6166 SOKAK C-D BLOK NO: 32B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3902,11 +3546,6 @@
           <t>ZAFERTEPE MAH. YEŞİLLİK CAD. NO: 77-79A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3950,11 +3589,6 @@
           <t>HALKAPINAR MAH. 1203/11 SK. ÖMER ATLI İŞMERKEZİ NO: 3 İÇ KAPI NO: Z2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3998,11 +3632,6 @@
           <t>KEMALPAŞA OSB MAH. İZMİR KEMALPAŞA ASFALTI CAD. NO: 15 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4046,11 +3675,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3107 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4094,11 +3718,6 @@
           <t>ULAMIŞ MAH. UFUKKÖY KÜME EVLERİ NO: 84 İÇ KAPI NO: 1 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4142,11 +3761,6 @@
           <t>HALKAPINAR MAHALLESİ 1202 SK. NO:57/F/F KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4190,11 +3804,6 @@
           <t>YENİŞEHİR MAH. 1248 SK. NO: 1 İÇ KAPI NO: 22 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4238,11 +3847,6 @@
           <t>MERİÇ MAHALLESİ 5748 SK. NO: 65/2 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4286,11 +3890,6 @@
           <t>İSMET KAPTAN MAH. GAZİ OSMAN PAŞA BUL. HİLTON OTELİ NO: 7 İÇ KAPI NO: Z54 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4334,11 +3933,6 @@
           <t>MERİÇ MAHALLESİ 5746/9 SOKAK NO: 2 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4382,11 +3976,6 @@
           <t>İSMET KAPTAN MAHALLESİ 1372 SOKAK TÜRKAY PLAZA BLOK NO: 13 İÇ KAPI NO: 2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4430,11 +4019,6 @@
           <t>YENİ MAHALLE MAH. 8206 SK. NO: 46A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4478,11 +4062,6 @@
           <t>ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4526,11 +4105,6 @@
           <t>AOSB MAHALLESİ M. KEMAL ATATÜRK BLV. NO:8 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4574,11 +4148,6 @@
           <t>KARABAĞLAR MAHALLESİ 5764 SOKAK NO: 34 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4622,11 +4191,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4670,11 +4234,6 @@
           <t>ZAFER MAH. 2370 SK. NO: 20 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4718,11 +4277,6 @@
           <t>ÜMİT MAHALLESİ 7404 SK. NO: 4 /1 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4766,11 +4320,6 @@
           <t>YENİKENT MAH. GÜVERCİN SK. NO: 7 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4814,11 +4363,6 @@
           <t>FATİH MAH. 1191 SK. NO: 5/9 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4862,11 +4406,6 @@
           <t>AOSB MAHALLESİ 10016 SK. NO:58 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4910,11 +4449,6 @@
           <t>MENDERES MAH. 152 SK. NO: 4D BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4958,11 +4492,6 @@
           <t>MERİÇ MAHALLESİ 5746/4 SK. NO: 23/1- BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5006,11 +4535,6 @@
           <t>ÇETİN EMEÇ MAH. FEVZİ ÇAKMAK SK. İNŞAAT NO: 6A BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5054,11 +4578,6 @@
           <t>EĞİTİM MAH. MERCAN SK. NO: 7A BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5102,11 +4621,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2809 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5150,11 +4664,6 @@
           <t>AYDINLIKEVLER MAH. 6782 SK. NO: 2A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5198,11 +4707,6 @@
           <t>İSMET İNÖNÜ MAH. 2001 SK. NO: 64B ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5246,11 +4750,6 @@
           <t>SERİNTEPE MAHALLESİ 4279 SOKAK NO:48/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5294,11 +4793,6 @@
           <t>FATİH MAH. 1180 SK. NO: 5 İÇ KAPI NO: 1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5342,11 +4836,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 39/2211 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5390,11 +4879,6 @@
           <t>MERİÇ MAHALLESİ 5746/3 SOKAK NO:1/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5438,11 +4922,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ 74 SK. NO: 1 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5486,11 +4965,6 @@
           <t>KEMALPAŞA OSB MAH. 74 SK. DURU LOJISTIK BLOK NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5534,11 +5008,6 @@
           <t>EGEMENLİK MAHALLESİ 6132 SOKAK NO: 3A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5582,11 +5051,6 @@
           <t>BALATÇIK MAHALLESİ 8901 SOKAK NO:42-17/1 EGE SANAYİ SİTESİ ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5630,11 +5094,6 @@
           <t>TUNA MAHALLESİ İBRAHİM YILMAZ SK. NO:21/2 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5678,11 +5137,6 @@
           <t>OSMANGAZİ MAHALLESİ 597 SOKAK NO:36/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5726,11 +5180,6 @@
           <t>TUNA MAHALLESİ 1717 SK. NO:82/E KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5774,11 +5223,6 @@
           <t>DOĞANAY MAH. ULU ÖNDER CAD. KÖROĞLU NO: 88B İÇ KAPI NO: B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5822,11 +5266,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3201 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5870,11 +5309,6 @@
           <t>YENİŞEHİR MAH. 1249 SK. NO: 11B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5918,11 +5352,6 @@
           <t>AKINCILAR MAH. AKDOĞAN CAD. NO: 124F BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5966,11 +5395,6 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ 1762 SK. NO:9 DAİRE:1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6014,11 +5438,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK MAĞAZA NUMARA:B004(28/F) FORUM BORNOVA BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6062,11 +5481,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO:125 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6110,11 +5524,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z12 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6158,11 +5567,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BULVARI NO:40 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6206,11 +5610,6 @@
           <t>KÜLTÜR MAH. TALATPAŞA BUL. SEVSAY BLOK NO: 14A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6254,11 +5653,6 @@
           <t>KEMALPAŞA MAHALLESİ KEMALPAŞA CADDESI NO:332 PINARBAŞI BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6302,11 +5696,6 @@
           <t>KONAK MAH. MÜCİBUR RAHMAN SK. SALİHAĞA İŞHANI NO: 3 İÇ KAPI NO: 220 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6350,11 +5739,6 @@
           <t>ÜÇKUYULAR MAH. 12 SK. NO: 31 İÇ KAPI NO: 2 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6398,11 +5782,6 @@
           <t>NERGİZ MAH. NİHAT DAĞDELEN SK. ÇAĞDAŞ NO: 6A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6446,11 +5825,6 @@
           <t>AKDENİZ MAHALLESİ ŞEHİT FETHİBEY CAD. NO: 55/091 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6494,11 +5868,6 @@
           <t>İSMET KAPTAN MAH. 1385 SK. YENİ ASIR İŞ MERKEZİ NO: 3 İÇ KAPI NO: 23 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6542,11 +5911,6 @@
           <t>MERİÇ MAH. 5750 SK. NO: 2A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6590,11 +5954,6 @@
           <t>HÜRRİYET MAH. SÜLEYMAN DEMİREL BUL. NO: 18-A25 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6638,11 +5997,6 @@
           <t>MANSUROĞLU MAHALLESİ 1593/1 SK. LIDER CENTRIO APT. NO: 2/67 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6686,11 +6040,6 @@
           <t>ONUR MAH. ZAMBAK SK. UĞUR NO: 37/B İÇ KAPI NO: 14 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6734,11 +6083,6 @@
           <t>MUSALLA MAHALLESİ 1016 SK. NO: 2 /5F ÇEŞME/İZMİR</t>
         </is>
       </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6782,11 +6126,6 @@
           <t>KÜLTÜR MAHALLESİ ALİ ÇETİNKAYA BULVARI NO: 14 A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -6830,11 +6169,6 @@
           <t>GÜZELYALI MAHALLESİ MİTHATPAŞA CD. NO:1068/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6878,11 +6212,6 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CADDESİ KENET SİTESİ BLOK NO: 134B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6926,11 +6255,6 @@
           <t>MAVİŞEHİR MAH. AZİZ NESİN BUL. NO: 24 İÇ KAPI NO: Z21 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6974,11 +6298,6 @@
           <t>ONUR MAHALLESİ MİTHATPAŞA CAD. NO:37/A/A BALÇOVA BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7022,11 +6341,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ BLOK NO: 101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7070,11 +6384,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7118,11 +6427,6 @@
           <t>YALI MAHALLESİ 6470/1 SOK. NO: 8 İÇ KAPI NO: 2 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7166,11 +6470,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 30 İÇ KAPI NO: 129 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7214,11 +6513,6 @@
           <t>YEŞİLOVA MAH. 4174 SK. A NO: 84 İÇ KAPI NO: Z37 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7262,11 +6556,6 @@
           <t>EVKA-3 MAHALLESİ CENGİZHAN CADDESİ A Apt. NO: 47 D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7310,11 +6599,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B153 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7358,11 +6642,6 @@
           <t>BOSTANLI MAHALLESİ 1794 SK. NO:17/B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7406,11 +6685,6 @@
           <t>BALATÇIK MAHALLESİ 8901 SK. NO:42/11 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7454,11 +6728,6 @@
           <t>İSMET KAPTAN MAHALLESİ ŞAİR EŞREF BLV. İHSAN KAYIN PLAZA APT. NO: 15/83 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7502,11 +6771,6 @@
           <t>TUNA MAH. MAHALLESİ 5627/2 SOKAK NO:8 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7550,11 +6814,6 @@
           <t>ALAÇATI MAH. ALAÇATI ATATÜRK BUL. NO: 64A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7598,11 +6857,6 @@
           <t>ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7646,11 +6900,6 @@
           <t>ATAŞEHİR MAHALLESİ 8271/2 SK PELİT BLOK NO: 4A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7694,11 +6943,6 @@
           <t>İSMET KAPTAN MAHALLESİ 1371 SOKAK NO: 3A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -7742,11 +6986,6 @@
           <t>ADALET MAHALLESİ MANAS BULVARI NO: 47B İÇ KAPI NO: 3406 BAYRAKLI BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -7790,11 +7029,6 @@
           <t>BOSTANLI MAH. GİRNE BUL. SUAT HANIM NO: 51/2 İÇ KAPI NO: 3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -7838,11 +7072,6 @@
           <t>KARACAOĞLAN MAH. 6167 SK. B BLOK NO: 28A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -7886,11 +7115,6 @@
           <t>İTOB OSB MAHALLESİ 10007 SK. NO: 3/_ MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -7934,11 +7158,6 @@
           <t>ERZENE MAH. 8 SK. NO: 6G BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -7982,11 +7201,6 @@
           <t>LATİFE HANIM MAH. BAŞ PEHLİVAN KARAALİ CAD. NO: 296A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8030,11 +7244,6 @@
           <t>KONAK MAHALLESİ 860 SK. NO: 14 D KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8078,11 +7287,6 @@
           <t>CUMHURİYET MAHALLESİ ALİM DAĞHAN SK. NO: 1 /1/15 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8126,11 +7330,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/147 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8174,11 +7373,6 @@
           <t>ÇAMLIKULE MAHALLESİ 254 SK. NO:149/A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8222,11 +7416,6 @@
           <t>AKDENİZ MAH. CUMHURİYET BUL. ELBİR İŞHANI NO: 84 İÇ KAPI NO: 101 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8270,11 +7459,6 @@
           <t>KEMALPAŞA MAH. 7416/3 SK. NO: 8 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8318,11 +7502,6 @@
           <t>TEKELİ ATATÜRK MAHALLESİ KAZIM KARABEKİR CAD. A BLOK NO: 28AD MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8366,11 +7545,6 @@
           <t>YENİGÜN MAHALLESİ 1313 SOKAK NO:7/B/B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8414,11 +7588,6 @@
           <t>KAZIM DİRİK MAHALLESİ FEVZİ ÇAKMAK CAD. NO:24/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8462,11 +7631,6 @@
           <t>KÖYİÇİ MAH. ANADOLU CAD. NO: 786A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8510,11 +7674,6 @@
           <t>GONCALAR MAHALLESİ GİRNE BULVARI NO:173 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8558,11 +7717,6 @@
           <t>YALI MAHALLESİ MİTHATPAŞA CAD. NO:108/A/0 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8606,11 +7760,6 @@
           <t>EŞREFPAŞA MAHALLESİ EŞREFPAŞA CAD. KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8654,11 +7803,6 @@
           <t>İSMET KAPTAN MAHALLESİ ŞAİR EŞREF BULVARI NO:7 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -8702,11 +7846,6 @@
           <t>MERİÇ MAHALLESİ 5748/3 SOKAK NO:19/3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -8750,11 +7889,6 @@
           <t>YEŞİLOVA MAHALLESİ 4040 SOKAK NO: 39 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -8798,11 +7932,6 @@
           <t>FIRAT MAHALLESİ 271 SK. NO: 14A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -8846,11 +7975,6 @@
           <t>ADALET MAHALLESİ ANADOLU CADDESİ NO:41/101 MEGAPOL TOWER Apt. BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -8894,11 +8018,6 @@
           <t>ATAŞEHİR MAH. CAHER DUDAYEV BUL. KOÇTAŞ NO: 7 İÇ KAPI NO: 103 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -8942,11 +8061,6 @@
           <t>ALTINORDU MAHALLESİ ANAFARTALAR CADDESİ NO:764 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -8990,11 +8104,6 @@
           <t>MANSUROĞLU MAH. 1593/1 SK. İNŞAAT NO: 4 İÇ KAPI NO: 5 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9038,11 +8147,6 @@
           <t>GÖKSU MAH. 691/4 SK. NO: 1B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9086,11 +8190,6 @@
           <t>NAİPLİ MAHALLESİ MAHALLESİ ŞİİR SK. NO:22 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9134,11 +8233,6 @@
           <t>ADALET MAH. 1645/7 SK. NO: 32 İÇ KAPI NO: 1 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9182,11 +8276,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS Apt. NO: 47 B/2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9230,11 +8319,6 @@
           <t>ADALET MAHALLESİ ANADOLU CAD. NO:41/101 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9278,11 +8362,6 @@
           <t>FATİH MAH. 1191 SK. NO: 5/9 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9326,11 +8405,6 @@
           <t>İÇMELER MAH. TEKKE CAD. MENESKÖY NO: 12/3 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9374,11 +8448,6 @@
           <t>MANSUROĞLU MAHALLESİ ANKARA CAD. NO:81 İÇ KAPI NO: 011 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9422,11 +8491,6 @@
           <t>ALAÇATI MAHALLESİ 11078 SOK. NO:54/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9470,11 +8534,6 @@
           <t>AOSB MAHALLESİ 10014 SK. LUXATICA GÖZLÜK Apt. NO: 13 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9518,11 +8577,6 @@
           <t>YENİKALE MAHALLESİ ÖMÜR SK. SMYRNA PARK EVLERİ Sit.C6-BLOK Apt.NO:12 F/1 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9566,11 +8620,6 @@
           <t>FATİH MAHALLESİ 1193 SOKAK NO:5/0 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -9614,11 +8663,6 @@
           <t>KAZIMDİRİK MAH. ÜNİVERSİTE CAD. NO: 124O BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -9662,11 +8706,6 @@
           <t>ZÜBEYDE HANIM MAH. 7448/4 SK. NO: 33 İÇ KAPI NO: 104 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -9710,11 +8749,6 @@
           <t>MANSUROĞLU MAHALLESİ 286/3 SOKAK NO: 14B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -9758,11 +8792,6 @@
           <t>ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -9806,11 +8835,6 @@
           <t>BOSTANLI MAHALLESİ CEMAL GÜRSEL CADDESİ NO:494/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -9854,11 +8878,6 @@
           <t>HACI İSA MAH. YENİ OTOPARK SK. NO: 4 İÇ KAPI NO: 231 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -9902,11 +8921,6 @@
           <t>ŞİRİNKENT MAH. 4228/1 SK. 2 NO.LU NO: 25/2 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -9950,11 +8964,6 @@
           <t>YELKİ MAHALLESİ 2725 SOKAK NO: 1/C4-C11 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -9998,11 +9007,6 @@
           <t>FATİH MAHALLESİ 1186 SOKAK NO:3/1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10046,11 +9050,6 @@
           <t>YALI MAHALLESİ 6522 SK. HİLLTOVVN AVM Sit. İNŞAAT Apt. NO: 3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10094,11 +9093,6 @@
           <t>TUNA MAHALLESİ KEMALPAŞA CAD. 1717 SOKAK NO:46/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10142,11 +9136,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO:3 İÇ KAPI NO:1B142 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10190,11 +9179,6 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULVARI NO:24 KAT:1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10238,11 +9222,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10286,11 +9265,6 @@
           <t>AKDENİZ MAHALLESİ ŞEHİT FETHİBEY CADDESİ HERİS TOWER BLOK NO: 55 İÇ KAPI NO: 091 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10334,11 +9308,6 @@
           <t>ATATÜRK MAHALLESİ BARBAROS CADDESI NO:128/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10382,11 +9351,6 @@
           <t>YENİGÜN MAH. NAZIM HİKMET CAD. A BLOK NO: 70A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10430,11 +9394,6 @@
           <t>YILDIZ MAHALLESİ 200/12 SK. ALNUR BLOK NO: 33B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10478,11 +9437,6 @@
           <t>FİKRİ ALTAY MAHALLESİ GÜN SAZAK BULVARI NO:160/B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10526,11 +9480,6 @@
           <t>HALKAPINAR MAHALLESİ 1203 SOK. OSMAN SÖĞÜTLÜ İŞMERK Apt. NO: 4 A/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -10570,11 +9519,6 @@
           <t>MAHALLESİ ANADOLU CAD. MEGAPOL TOWER BLOK NO: 41 İÇ KAPI NO: 081 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -10618,11 +9562,6 @@
           <t>DOKUZ EYLÜL MAH. 316 SK. NO: 2 İÇ KAPI NO: 1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -10666,11 +9605,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -10714,11 +9648,6 @@
           <t>AKDENİZ MAH. FEVZİPAŞA BUL. AZİMHAN İŞ MERKEZİ NO: 17A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -10762,11 +9691,6 @@
           <t>ADALET MAH. ANADOLU CAD. MEGAPOL TOWER BLOK NO: 41 İÇ KAPI NO: 101 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -10810,11 +9734,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -10858,11 +9777,6 @@
           <t>REİS MAH. ORDU CAD. EFSANE BLOK NO: 69B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -10906,11 +9820,6 @@
           <t>MERİÇ MAHALLESİ 5746/4 SK. NO: 24/21 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -10954,11 +9863,6 @@
           <t>EVKA 3 MAH. 119/9 SK. HILAL SİTESİ NO: 5/3G BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11002,11 +9906,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHAR DUDAYEV BULVARI NO:40 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11050,11 +9949,6 @@
           <t>KAHRAMANDERE MAH. 852 SK. NO: 1B GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11098,11 +9992,6 @@
           <t>SİTELER MAHALLESİ NO:4 452 SK. GÜZELBAHÇE GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11146,11 +10035,6 @@
           <t>MANSUROĞLU MAH. 1593/1 SK. NO: 28B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11194,11 +10078,6 @@
           <t>KAZIMDİRİK MAH. KURTULUŞ CAD. KURTULUŞ NO: 23B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11242,11 +10121,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 28 İÇ KAPI NO: 111 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11290,11 +10164,6 @@
           <t>ATAŞEHİR MAH. YENİHAVAALANI CAD. ÇİĞLİ KİPA BLOK NO: 40 İÇ KAPI NO: Z94 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11338,11 +10207,6 @@
           <t>YALI MAH. 6522 SK. NO: 3 İÇ KAPI NO: 139 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11386,11 +10250,6 @@
           <t>TUNA MAH. KEMALPAŞA CAD. AVLAR PASAJI BLOK NO: 90 İÇ KAPI NO: Z01 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11434,11 +10293,6 @@
           <t>ŞEMİKLER MAH. ORDU BUL. MEHMET BEY NO: 224D KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11482,11 +10336,6 @@
           <t>HACI İSA MAHALLESİ 75.YIL CUMHURİYET CAD. NO: 5/2 URLA/İZMİR</t>
         </is>
       </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -11530,11 +10379,6 @@
           <t>KAHRAMANLAR MAH. 1416 SK. NO: 29 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -11578,11 +10422,6 @@
           <t>ERZENE MAHALLESİ KAZIM KARABEKİR CAD. ÖZTÜRK İŞ MERKEZİ BLOK NO: 5/1 İÇ KAPI NO:31 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -11626,11 +10465,6 @@
           <t>YUNUS EMRE MAHALLESİ 7513/1 SOK. NO: 2F BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -11674,11 +10508,6 @@
           <t>DONANMACI MAH. YALI BUL. TAN NO: 302 İÇ KAPI NO: 2 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -11722,11 +10551,6 @@
           <t>BOSTANLI MAH. ŞEHİT KADİR TURUNÇ SK. ÖZVARDAR BLOK NO: 19 İÇ KAPI NO: 5 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -11770,11 +10594,6 @@
           <t>KEMALPAŞA MAH. KEMALPAŞA CAD. NO: 332 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -11818,11 +10637,6 @@
           <t>ÇINAR MAHALLESİ 5003/3 SK. NO: 3/303 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -11866,11 +10680,6 @@
           <t>MERİÇ MAHALLESİ 5748/1 SOKAK NO:10/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -11914,11 +10723,6 @@
           <t>ONUR MAH. LİMON SK. DURU NO: 1 İÇ KAPI NO: 73 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -11962,11 +10766,6 @@
           <t>BARBAROS MAH. 5301/2 SK. NO: 4 İÇ KAPI NO: 3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12010,11 +10809,6 @@
           <t>BUCAOSB MAHALLESİ 2/20 SK. BEGOS SİT. NO: 26 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12058,11 +10852,6 @@
           <t>AKDENİZ MAHALLESİ ŞEHİT FETHİ BEY CAD. PENPAR İŞHANI BLOK NO: 49 İÇ KAPI NO: 21 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12106,11 +10895,6 @@
           <t>ALAÇATI MAH. 13002 SK. NO: 8 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12154,11 +10938,6 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ 1762 SK. NO: 9 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12202,11 +10981,6 @@
           <t>UĞUR MUMCU MAHALLESİ 8790/9 SK. NO:19 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12250,11 +11024,6 @@
           <t>ERZENE MAH. GENÇLİK CAD. NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -12298,11 +11067,6 @@
           <t>LATİFE HANIM MAH. 7686 SK. NO: 12/1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -12346,11 +11110,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ 41 SOKAK NO:20/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -12394,11 +11153,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BULVARI A Apt. NO: 40/208 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -12442,11 +11196,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ Apt. NO: 103/0 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -12490,11 +11239,6 @@
           <t>YAMANLAR MAH. 7334 SK. NO: 6A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -12538,11 +11282,6 @@
           <t>ŞİRİNYER MAHALLESİ FORBES CD. NO:26 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -12586,11 +11325,6 @@
           <t>BOSTANLI MAH. CEMAL GÜRSEL CAD. NO: 83 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -12634,11 +11368,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK NO:10 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -12682,11 +11411,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CADDESİ NO:28 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -12730,11 +11454,6 @@
           <t>BASIN SİTESİ MAHALLESİ ŞEHİT CEYSU CEYLAN CAD. NO:112/A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -12778,11 +11497,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -12826,11 +11540,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B143 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -12874,11 +11583,6 @@
           <t>KONAK MAHALLESİ MİLLİ KÜTÜPHANE CADDESİ NO:6/D KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -12922,11 +11626,6 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULVARI NO:24 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -12970,11 +11669,6 @@
           <t>GÜNEŞLİ MAHALLESİ EŞREFPAŞA CADDESİ NO:408 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -13018,11 +11712,6 @@
           <t>YEŞİLOVA MAHALLESİ 4174 SK. NO:84 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -13066,11 +11755,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/109 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -13114,11 +11798,6 @@
           <t>TUNA MAHALLESİ KEMALPAŞA CAD. NO:152/1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -13162,11 +11841,6 @@
           <t>BEYAZ EVLER MAHALLESİ GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -13210,11 +11884,6 @@
           <t>MANSUROĞLU MAHALLESİ 286/3 SOK. NO:4 DAİRE:7 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -13258,11 +11927,6 @@
           <t>HÜRRİYET MAHALLESİ 465 SK. NO:10 A/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -13306,11 +11970,6 @@
           <t>UFUK MAHALLESİ FEVZİ ÇAKMAK CAD. NO:204/B/B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -13354,11 +12013,6 @@
           <t>ALPASLAN MAHALLESİ 1620/5 SOK. NO:1/B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -13402,11 +12056,6 @@
           <t>MERSİNLİ MAHALLESİ 1202/2 SOKAK TEMSİL PLAZA Apt. NO: 80 K KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -13450,11 +12099,6 @@
           <t>HALKAPINAR MAH. 1203 SK. NO: 8 İÇ KAPI NO: 25 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -13498,11 +12142,6 @@
           <t>MANSUROĞLU MAH. 1593/1 SK. NO: 10 İÇ KAPI NO: 46 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -13546,11 +12185,6 @@
           <t>TUNA MAHALLESİ KEMAL PAŞA CADDESİ NO: 70C KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -13594,11 +12228,6 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULVARI B BLOK NO: 26 İÇ KAPI NO: 120 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -13642,11 +12271,6 @@
           <t>YALI MAH. 6522 SK. NO: 3 İÇ KAPI NO: 151 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -13690,11 +12314,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ BLOK NO: 101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -13738,11 +12357,6 @@
           <t>GÖKSU MAH. 668 SK. NO: 20A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J277" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -13786,11 +12400,6 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. NO:24/12 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J278" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -13834,11 +12443,6 @@
           <t>AKDENİZ MAHALLESİ GAZİ OSMAN PAŞA BULVARI NO:8 KAT:2 / İZMİR</t>
         </is>
       </c>
-      <c r="J279" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -13882,11 +12486,6 @@
           <t>ADALET MAHALLESİ ANADOLU CAD. NO:41 MEGAPOL TOWER BLOK DAİRE:101 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J280" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -13930,11 +12529,6 @@
           <t>İTOB OSB MAHALLESİ 10036 SK NO: 13 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J281" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -13978,11 +12572,6 @@
           <t>FUAT EDİP BAKSI MAHALLESİ CÜNEYT SİVARİOĞULLARI SK. NO: 5/11 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -14026,11 +12615,6 @@
           <t>MERİÇ MAHALLESİ 5748/3 SOKAK NO:19 İÇ KAPI NO: 3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -14074,11 +12658,6 @@
           <t>ATAŞEHİR MAH. 8229/2 SK. NO: 5 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J284" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -14122,11 +12701,6 @@
           <t>YEŞİLBAĞLAR MAHALLESİ 647/1 SK. NO: 63 -65/2 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -14170,11 +12744,6 @@
           <t>OSMANGAZİ MAHALLESİ 597/3 SOK. NO: 12 İÇ KAPI NO: 15 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J286" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -14218,11 +12787,6 @@
           <t>OVACIK MAH. 7000 SK. NO: 60 İÇ KAPI NO: 3 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -14266,11 +12830,6 @@
           <t>AKDENİZ MAHALLESİ VALİ KAZIM DİRİK CADDESİ NO:4/22 GAYRET HAN BLOK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -14314,11 +12873,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 39 İÇ KAPI NO: 3803 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J289" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -14362,11 +12916,6 @@
           <t>MENDERES MAHALLESİ 149/1 SK. NO:30 SARNIÇ GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J290" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -14410,11 +12959,6 @@
           <t>ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41 İÇ KAPI NO: 081 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J291" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -14458,11 +13002,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J292" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -14506,11 +13045,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 124 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J293" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -14554,11 +13088,6 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULVARI NO:26 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J294" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -14602,11 +13131,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK D Apt. NO: 26 O BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J295" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -14650,11 +13174,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J296" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -14698,11 +13217,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J297" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -14746,11 +13260,6 @@
           <t>YENİGÜN MAHALLESİ 271/11 SK. NO: 1 İÇ KAPI NO: 7 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J298" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -14794,11 +13303,6 @@
           <t>AKDENİZ MAH. ŞEHİT FETHİBEY CAD. 99 BASAMAK İŞ MERKEZİ NO: 43 İÇ KAPI NO: 13 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J299" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -14842,11 +13346,6 @@
           <t>CENNETOĞLU MAH. YEŞİLLİK CAD. SELGEÇEN MODEKO NO: 228-230 İÇ KAPI NO: 613 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J300" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -14890,11 +13389,6 @@
           <t>ADALET MAHALLESİ MANAS BUL. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 34 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J301" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -14938,11 +13432,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J302" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -14986,11 +13475,6 @@
           <t>MUSTAFA KEMAL MAHALLESİ 6753/7 SK. MUSTAFA KEMAL MH.KAPALI PAZAR YERİ BLOK NO:5C KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J303" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -15034,11 +13518,6 @@
           <t>İNÖNÜ MAH. 672/13 SK. NO: 14 İÇ KAPI NO: 1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J304" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -15082,11 +13561,6 @@
           <t>ALSANCAK MAH. ALİ ÇETİNKAYA BUL. TÜTÜN BLOK NO: 19A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J305" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -15130,11 +13604,6 @@
           <t>TUNA MAHALLESİ KEMALPAŞA CAD. NO: 50 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J306" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -15178,11 +13647,6 @@
           <t>ADALET MAHALLESİ 2131/11 SOK. NO:3/1 İNŞAAT BLOK BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J307" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -15226,11 +13690,6 @@
           <t>ADALET MAHALLESİ 2131/11 SOK. İNŞAAT BLOK NO: 3 İÇ KAPI NO: 1 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J308" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -15274,11 +13733,6 @@
           <t>İSMET KAPTAN MAHALLESİ 1362 SOK. BÜYÜK ÇAMLIBEL IS MERKEZI Apt. NO: 30/803 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J309" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -15322,11 +13776,6 @@
           <t>KÜLTÜR MAHALLESİ MEKSİKA SOKAK NO: 14 A/14A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J310" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -15370,11 +13819,6 @@
           <t>YALI MAHALLESİ 6522 SK. HİLLTOVVN AVM Apt. NO: 3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J311" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -15418,11 +13862,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 161 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J312" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -15466,11 +13905,6 @@
           <t>MUAMMER AKAR MAH. 45/5 SK. NO: 9 İÇ KAPI NO: 8 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J313" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -15514,11 +13948,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J314" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -15562,11 +13991,6 @@
           <t>GÖZTEPE MAH. 82 SK. YAPRAK NO: 17 İÇ KAPI NO: 4 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J315" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -15610,11 +14034,6 @@
           <t>ADALET MAHALLESİ MANAS BUL. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO:2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J316" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -15658,11 +14077,6 @@
           <t>YEŞİLOVA MAHALLESİ 4012/1 SOKAK KEMAL BEY SİTESİ E BLOK NO: 1/4B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J317" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -15706,11 +14120,6 @@
           <t>FATİH MAHALLESİ 1142 SK. NO: 45/0 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J318" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -15754,11 +14163,6 @@
           <t>ATİLLA MAH. 499 SK. ALİ RIZA BEY NO: 19C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J319" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -15802,11 +14206,6 @@
           <t>DOĞANLAR MAHALLESİ 1606 SOKAK NO:3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J320" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -15850,11 +14249,6 @@
           <t>BOSTANLI MAH. NEBİL SUSUP SK. ARI NO: 145A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J321" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -15898,11 +14292,6 @@
           <t>MANSUROĞLU MAH. 295/2 SK. EGE SUN PLAZA NO: 1/1 İÇ KAPI NO: 45 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J322" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -15946,11 +14335,6 @@
           <t>YEŞİLOVA MAHALLESİ 4174/5 SK. NO: 1/69 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J323" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -15994,11 +14378,6 @@
           <t>MERİÇ MAHALLESİ 5746/10 SOKAK NO:9 KAT:2 ÇAMDİBİ BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J324" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -16042,11 +14421,6 @@
           <t>ADALET MAH. ANADOLU CAD. TEPEKULE İŞ MERKEZİ BLOK NO: 40 İÇ KAPI NO: 505 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J325" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -16090,11 +14464,6 @@
           <t>TUNA MAH. 5501 SK. NO: 6 İÇ KAPI NO: 21 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J326" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -16138,11 +14507,6 @@
           <t>BARIŞ MAH. 4547 SK. NO: 9A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J327" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -16186,11 +14550,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SK. NO: 38 G/ BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J328" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -16234,11 +14593,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z61 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J329" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -16282,11 +14636,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO: 3 KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J330" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -16330,11 +14679,6 @@
           <t>HALKAPINAR MAH. 1203/11 SK. K.HASAN ATLI İŞMERK. NO: 4 İÇ KAPI NO: 519 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J331" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -16378,11 +14722,6 @@
           <t>GÜZELYALI MAHALLESİ 39 SOKAK NO:27/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J332" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -16426,11 +14765,6 @@
           <t>KAZIMDİRİK MAHALLESİ 367/6 SK. NO: 9 D BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J333" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -16474,11 +14808,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 28 İÇ KAPI NO: Z09 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J334" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -16522,11 +14851,6 @@
           <t>MUSALLA MAHALLESİ 1016 SOK. NO:2/5-E ÇEŞME MARİNA ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J335" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -16570,11 +14894,6 @@
           <t>AOSB MAHALLESİ 10003 SK. FELDA IFFCO GIDA APT. NO: 3/0 ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J336" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -16618,11 +14937,6 @@
           <t>KEMALPAŞA MAH. 7098/3 SK. NO: 31 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J337" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -16666,11 +14980,6 @@
           <t>KÜLTÜR MAHALLESİ TALATPAŞA BULVARI SEVSAY BLOK NO: 14A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J338" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -16714,11 +15023,6 @@
           <t>İSMET KAPTAN MAHALLESİ ŞEVKET ÖZÇELİK SOK. NO:53 AKIN İŞHANI BLOK İÇ KAPI NO: Z03 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J339" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -16762,11 +15066,6 @@
           <t>GÖLCÜKLER MAH. 900 SK. NO: 23/1 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J340" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -16810,11 +15109,6 @@
           <t>CUMHURİYET MAHALLESİ 6701 SK. NO: 39 İÇ KAPI NO: 10 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -16858,11 +15152,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO:3/Z DAİRE:74 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -16906,11 +15195,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 159 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -16954,11 +15238,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CADDESİ NO:32/Z06 AGORA A.V.M. BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -17002,11 +15281,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. NO:1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -17050,11 +15324,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. NO:1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J346" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -17098,11 +15367,6 @@
           <t>MİMAR SİNAN MAHALLESİ 1430 SK. NO:4/1 ALSANCAK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J347" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -17146,11 +15410,6 @@
           <t>BOSTANLI MAHALLESİ NEBİL SUSUP SK. NO: 162 İÇ KAPI NO: 2 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J348" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -17194,11 +15453,6 @@
           <t>KEMALPAŞA OSB MAH. 639 SK. NO: 8 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J349" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -17242,11 +15496,6 @@
           <t>MERİÇ MAH. 5746/9 SK. NO: 2 İÇ KAPI NO: Z1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J350" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -17290,11 +15539,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J351" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -17338,11 +15582,6 @@
           <t>ALSANCAK MAH. KIBRIS ŞEHİTLERİ CAD. MAYIS NO: 4A İÇ KAPI NO: 4A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J352" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -17386,11 +15625,6 @@
           <t>GÜVEN MAHALLESİ MENDERES CADDESI NO:286/305 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J353" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -17434,11 +15668,6 @@
           <t>ERZENE MAHALLESİ 75 SOKAK SAYGIN BLOK NO: 23A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J354" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -17482,11 +15711,6 @@
           <t>KAZIMDİRİK MAHALLESİ 375 SOKAK NO:18 K:2 D:203 PİRAMİT İŞ MERKEZİ BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J355" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -17530,11 +15754,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J356" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -17578,11 +15797,6 @@
           <t>YEŞİLOVA MAHALLESİ 4053 SOKAK NO: 89A İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J357" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -17626,11 +15840,6 @@
           <t>KÜÇÜK ÇİĞLİ MAHALLESİ 8702 SK. NO:3/A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J358" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -17674,11 +15883,6 @@
           <t>KARACAOĞLAN MAH. 6167 SK. B BLOK NO: 28A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J359" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -17722,11 +15926,6 @@
           <t>DONANMACI MAH. 1721 SK. MELEK PASAJI NO: 4 İÇ KAPI NO: 115 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J360" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -17770,11 +15969,6 @@
           <t>YENİŞEHİR MAHALLESİ 1145/1 SOKAK NO:48/2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J361" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -17818,11 +16012,6 @@
           <t>ALSANCAK MAH. KIBRIS ŞEHİTLERİ CAD. HAYDAR HOCA BLOK NO: 43A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J362" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -17866,11 +16055,6 @@
           <t>FATİH MAHALLESİ 1191 SOK. NO:31/A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J363" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -17914,11 +16098,6 @@
           <t>KORUTÜRK MAHALLESİ ORTANCA SK. ORTANCA APT. NO: 27/8 BALÇOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J364" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -17962,11 +16141,6 @@
           <t>YENİ MAH. NECATİ CUMALI CAD. NO: 33 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J365" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -18010,11 +16184,6 @@
           <t>ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J366" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -18058,11 +16227,6 @@
           <t>ADALET MAHALLESİ MANAS BUL. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J367" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -18106,11 +16270,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J368" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -18154,11 +16313,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ NO: 103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J369" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -18202,11 +16356,6 @@
           <t>YELALTI MAH. ALTIN SK. NO: 1 İÇ KAPI NO: 7 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J370" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -18250,11 +16399,6 @@
           <t>MERİÇ MAH. 5748 SK. NO: 65 İÇ KAPI NO: 3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J371" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -18298,11 +16442,6 @@
           <t>ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J372" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -18346,11 +16485,6 @@
           <t>İSMET KAPTAN MAHALLESİ HÜRRİYET BLV. NO: 11/32 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J373" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -18394,11 +16528,6 @@
           <t>KÜLTÜR MAH. CUMHURİYET BUL. NO: 137 İÇ KAPI NO: 7 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J374" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -18442,11 +16571,6 @@
           <t>GAZİ MAHALLESİ MEHMET EMİN GÜRKAN CADDESİ NO:6/B GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J375" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -18490,11 +16614,6 @@
           <t>ATAŞEHİR MAHALLESİ 8265/1 SK. NO: 3/29 ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J376" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -18538,11 +16657,6 @@
           <t>ÇALIKUŞU MAH. COŞKUN KALE SK. NO: 13A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J377" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -18586,11 +16700,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ 41 SOKAK NO:20/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J378" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -18634,11 +16743,6 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. EBRU BLOK NO: 30B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J379" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -18682,11 +16786,6 @@
           <t>KONAK MAHALLESİ ANAFARTALAR CADDESİ NO:73 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J380" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -18730,11 +16829,6 @@
           <t>YALI MAHALLESİ 6507 SK. İNŞAAT BLOK NO: 5 İÇ KAPI NO: 5 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J381" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -18778,11 +16872,6 @@
           <t>TUNA MAH. 1710 SK. İŞHANI NO: 3 İÇ KAPI NO: 204 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J382" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -18826,11 +16915,6 @@
           <t>YENİŞEHİR MAH. 1245 SK. NO: 15E KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J383" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -18874,11 +16958,6 @@
           <t>ADALET MAHALLESİ MANAS BULV. FOLKART TOWERS Apt. NO: 47 B/2809 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J384" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -18922,11 +17001,6 @@
           <t>AKDENİZ MAHALLESİ ŞEHİT FETHİ BEY CD. NO:55/091 HERİS TOWER Apt. KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J385" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -18964,11 +17038,6 @@
       <c r="I386" s="2" t="inlineStr">
         <is>
           <t>MAHALLESİ ALİ ÇETİNKAYA BULV. NO:50/1/4 DEMET APARTMANI KONAK / İZMİR</t>
-        </is>
-      </c>
-      <c r="J386" s="2" t="inlineStr">
-        <is>
-          <t>20 - KOZMETİK GRUBU</t>
         </is>
       </c>
     </row>
